--- a/ProcessedData/conf_svm_video_4.xlsx
+++ b/ProcessedData/conf_svm_video_4.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,13 +405,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.222041628319204</v>
+        <v>9.247962914137858</v>
       </c>
       <c r="C2">
-        <v>-4.192662062696644</v>
+        <v>0.05890140217295181</v>
       </c>
       <c r="D2">
-        <v>-5.991091716056605</v>
+        <v>-18.52917263431497</v>
+      </c>
+      <c r="E2">
+        <v>28</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -431,13 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4307966445341871</v>
+        <v>2.758504986364994</v>
       </c>
       <c r="C3">
-        <v>-0.2496094119764882</v>
+        <v>1.992198923259467</v>
       </c>
       <c r="D3">
-        <v>-2.179951351513692</v>
+        <v>-6.193064264699221</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -448,13 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.1609769596267376</v>
+        <v>1.409209468302964</v>
       </c>
       <c r="C4">
-        <v>-0.4572377815612444</v>
+        <v>0.9845290429505797</v>
       </c>
       <c r="D4">
-        <v>-0.8461466211269931</v>
+        <v>-3.307172835165382</v>
+      </c>
+      <c r="E4">
+        <v>28</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -465,13 +465,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1283565205078936</v>
+        <v>1.86228626252683</v>
       </c>
       <c r="C5">
-        <v>-0.8930488533854007</v>
+        <v>1.099570237175071</v>
       </c>
       <c r="D5">
-        <v>-1.341932179675106</v>
+        <v>-4.132157624749567</v>
+      </c>
+      <c r="E5">
+        <v>28</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -482,13 +485,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.6260169376688024</v>
+        <v>1.566815246336899</v>
       </c>
       <c r="C6">
-        <v>-0.234247767544164</v>
+        <v>1.785349406202523</v>
       </c>
       <c r="D6">
-        <v>-0.6068617236425086</v>
+        <v>-3.979099512166203</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -499,13 +505,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3709640636997258</v>
+        <v>2.404183921956998</v>
       </c>
       <c r="C7">
-        <v>-0.7023769637461827</v>
+        <v>1.423546638731869</v>
       </c>
       <c r="D7">
-        <v>-1.508310893018505</v>
+        <v>-4.798888323828501</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -516,13 +525,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3165303199523759</v>
+        <v>2.850254624251845</v>
       </c>
       <c r="C8">
-        <v>-1.189525253398732</v>
+        <v>2.009705308555</v>
       </c>
       <c r="D8">
-        <v>-1.000726727267085</v>
+        <v>-4.981318890210228</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -533,13 +545,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.6052132377783545</v>
+        <v>1.277402593297466</v>
       </c>
       <c r="C9">
-        <v>0.01607353670721856</v>
+        <v>1.529600896230957</v>
       </c>
       <c r="D9">
-        <v>-0.6807332000616225</v>
+        <v>-3.621641713214302</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -550,13 +565,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1056096930017116</v>
+        <v>2.112127733685525</v>
       </c>
       <c r="C10">
-        <v>-0.3995318684724659</v>
+        <v>1.645459572118202</v>
       </c>
       <c r="D10">
-        <v>-1.857639647902085</v>
+        <v>-5.403237003427153</v>
+      </c>
+      <c r="E10">
+        <v>28</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -567,16 +585,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.1000040418158157</v>
+        <v>2.634748085791971</v>
       </c>
       <c r="C11">
-        <v>0.3424986968684613</v>
+        <v>2.627821689126975</v>
       </c>
       <c r="D11">
-        <v>-1.868050481122332</v>
+        <v>-6.171806530434065</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -584,13 +605,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5421985755527532</v>
+        <v>2.527623138042818</v>
       </c>
       <c r="C12">
-        <v>-0.4293473244093144</v>
+        <v>1.533312775845424</v>
       </c>
       <c r="D12">
-        <v>-2.307037798203654</v>
+        <v>-5.717038141568248</v>
+      </c>
+      <c r="E12">
+        <v>28</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -601,13 +625,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.06793043878879246</v>
+        <v>3.007140426101969</v>
       </c>
       <c r="C13">
-        <v>-0.5771297985232393</v>
+        <v>2.789586351804135</v>
       </c>
       <c r="D13">
-        <v>-1.789928918189902</v>
+        <v>-6.528715863567528</v>
+      </c>
+      <c r="E13">
+        <v>28</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -618,16 +645,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.4115923545461218</v>
+        <v>2.032442443192322</v>
       </c>
       <c r="C14">
-        <v>-0.277072801478991</v>
+        <v>1.67623802341005</v>
       </c>
       <c r="D14">
-        <v>-0.6467391889370963</v>
+        <v>-4.840525047649505</v>
+      </c>
+      <c r="E14">
+        <v>28</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -635,13 +665,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.5064989641799329</v>
+        <v>0.5790905045499506</v>
       </c>
       <c r="C15">
-        <v>-1.042238231181099</v>
+        <v>-0.1556901364520956</v>
       </c>
       <c r="D15">
-        <v>-0.8650995143354742</v>
+        <v>-5.341655133275037</v>
+      </c>
+      <c r="E15">
+        <v>28</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -652,13 +685,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.2349344363666017</v>
+        <v>1.775915545777224</v>
       </c>
       <c r="C16">
-        <v>-0.8239764072953614</v>
+        <v>1.309267116432167</v>
       </c>
       <c r="D16">
-        <v>-0.9941298940079201</v>
+        <v>-4.509008911448535</v>
+      </c>
+      <c r="E16">
+        <v>28</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -669,13 +705,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.02156721439455067</v>
+        <v>1.926424795867929</v>
       </c>
       <c r="C17">
-        <v>-0.4472126991800965</v>
+        <v>1.499809558460271</v>
       </c>
       <c r="D17">
-        <v>-1.672641681208646</v>
+        <v>-4.746112101720679</v>
+      </c>
+      <c r="E17">
+        <v>28</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -686,16 +725,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.3844514360447042</v>
+        <v>1.692403774735641</v>
       </c>
       <c r="C18">
-        <v>-1.972486963213691</v>
+        <v>2.380043680232919</v>
       </c>
       <c r="D18">
-        <v>-1.494082844216983</v>
+        <v>-4.315914067385042</v>
+      </c>
+      <c r="E18">
+        <v>28</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -703,13 +745,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2638061309762059</v>
+        <v>3.239103221140987</v>
       </c>
       <c r="C19">
-        <v>-2.051075370579356</v>
+        <v>2.835975985199691</v>
       </c>
       <c r="D19">
-        <v>-1.722850587239859</v>
+        <v>-7.34726556196456</v>
+      </c>
+      <c r="E19">
+        <v>28</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -720,16 +765,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3510156853616559</v>
+        <v>2.384017442004382</v>
       </c>
       <c r="C20">
-        <v>-0.9637370034965316</v>
+        <v>2.663210728620131</v>
       </c>
       <c r="D20">
-        <v>-3.418465700604976</v>
+        <v>-6.578196567540995</v>
+      </c>
+      <c r="E20">
+        <v>28</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -737,13 +785,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5056465302641153</v>
+        <v>6.088087652187463</v>
       </c>
       <c r="C21">
-        <v>-7.681943940503892</v>
+        <v>-3.795119984225764</v>
       </c>
       <c r="D21">
-        <v>-1.118255505517241</v>
+        <v>-23.73117581519729</v>
+      </c>
+      <c r="E21">
+        <v>29</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -754,16 +805,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.2614826213099102</v>
+        <v>0.1349139302873137</v>
       </c>
       <c r="C22">
-        <v>-0.664342455983991</v>
+        <v>0.8519829534969665</v>
       </c>
       <c r="D22">
-        <v>-1.15834055275303</v>
+        <v>-2.66563253623034</v>
+      </c>
+      <c r="E22">
+        <v>29</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -771,16 +825,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-1.573755651694468</v>
+        <v>-1.219501958961753</v>
       </c>
       <c r="C23">
-        <v>-2.142979486877118</v>
+        <v>0.9184494504297431</v>
       </c>
       <c r="D23">
-        <v>0.3347247680796372</v>
+        <v>-5.004617147266771</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -788,16 +845,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-3.035344931688194</v>
+        <v>-3.238247945503413</v>
       </c>
       <c r="C24">
-        <v>-4.759353715420977</v>
+        <v>-0.6077544175068164</v>
       </c>
       <c r="D24">
-        <v>1.422666657382288</v>
+        <v>-11.55474124761088</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -805,16 +865,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.5762206736863419</v>
+        <v>-0.08044210186617362</v>
       </c>
       <c r="C25">
-        <v>-0.9082717704518042</v>
+        <v>1.348189145668953</v>
       </c>
       <c r="D25">
-        <v>-1.152998573071743</v>
+        <v>-2.669346030995318</v>
+      </c>
+      <c r="E25">
+        <v>29</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -822,13 +885,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.437963903088225</v>
+        <v>0.5246711794458847</v>
       </c>
       <c r="C26">
-        <v>-2.652573024780641</v>
+        <v>-1.513140749216661</v>
       </c>
       <c r="D26">
-        <v>-0.3971051206792803</v>
+        <v>-3.569402595957611</v>
+      </c>
+      <c r="E26">
+        <v>29</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -839,16 +905,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.4144369341717566</v>
+        <v>-0.00967783420195234</v>
       </c>
       <c r="C27">
-        <v>-0.7553162613771035</v>
+        <v>0.7552480922415501</v>
       </c>
       <c r="D27">
-        <v>-1.094231205115825</v>
+        <v>-2.974333380004879</v>
+      </c>
+      <c r="E27">
+        <v>29</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -856,16 +925,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.4511897124076394</v>
+        <v>0.004358938520579558</v>
       </c>
       <c r="C28">
-        <v>-1.242062643986943</v>
+        <v>0.777838734936932</v>
       </c>
       <c r="D28">
-        <v>-0.6051562628782227</v>
+        <v>-3.022493980762381</v>
+      </c>
+      <c r="E28">
+        <v>29</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -873,16 +945,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.4213845841012798</v>
+        <v>0.07022424382276138</v>
       </c>
       <c r="C29">
-        <v>-1.068517255492518</v>
+        <v>1.084568119596043</v>
       </c>
       <c r="D29">
-        <v>-0.674892393655861</v>
+        <v>-2.902805212665811</v>
+      </c>
+      <c r="E29">
+        <v>29</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -890,16 +965,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.372827481542495</v>
+        <v>-0.09645520420274245</v>
       </c>
       <c r="C30">
-        <v>-1.818139234477021</v>
+        <v>-0.07227563983821561</v>
       </c>
       <c r="D30">
-        <v>-0.237326773011528</v>
+        <v>-2.061420304619425</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -907,13 +985,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.4775059169747238</v>
+        <v>0.7880735656894191</v>
       </c>
       <c r="C31">
-        <v>-1.664823531393654</v>
+        <v>-0.3405331957242893</v>
       </c>
       <c r="D31">
-        <v>-0.6629125519444817</v>
+        <v>-3.006106616629794</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -924,16 +1005,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.4606283221857601</v>
+        <v>-0.3090376350153572</v>
       </c>
       <c r="C32">
-        <v>-0.8106024790190572</v>
+        <v>-0.1366214226007424</v>
       </c>
       <c r="D32">
-        <v>-0.7409893326184117</v>
+        <v>-1.932963451246557</v>
+      </c>
+      <c r="E32">
+        <v>29</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -941,16 +1025,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.7917567716551185</v>
+        <v>-0.2613272131243234</v>
       </c>
       <c r="C33">
-        <v>-0.925512033235343</v>
+        <v>1.247225203255757</v>
       </c>
       <c r="D33">
-        <v>-0.7549712492384665</v>
+        <v>-3.478333670279489</v>
+      </c>
+      <c r="E33">
+        <v>29</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -958,16 +1045,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.003698865739431678</v>
+        <v>0.4252162367671579</v>
       </c>
       <c r="C34">
-        <v>-2.700625860721158</v>
+        <v>-0.3584278843996001</v>
       </c>
       <c r="D34">
-        <v>0.08397683006422108</v>
+        <v>-1.670387192408166</v>
+      </c>
+      <c r="E34">
+        <v>29</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -975,16 +1065,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.5246653689564146</v>
+        <v>-0.2771697519004048</v>
       </c>
       <c r="C35">
-        <v>-1.328329218206582</v>
+        <v>0.09621796608001232</v>
       </c>
       <c r="D35">
-        <v>-0.3879466219451501</v>
+        <v>-2.026152038369037</v>
+      </c>
+      <c r="E35">
+        <v>29</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -992,16 +1085,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.9315907395466589</v>
+        <v>-0.5200924990928466</v>
       </c>
       <c r="C36">
-        <v>-1.272424196783621</v>
+        <v>0.7519301885600933</v>
       </c>
       <c r="D36">
-        <v>-0.4203458176720981</v>
+        <v>-2.661158862583366</v>
+      </c>
+      <c r="E36">
+        <v>29</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1009,16 +1105,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.8338075173578701</v>
+        <v>-0.5996326927449102</v>
       </c>
       <c r="C37">
-        <v>-1.584920677959105</v>
+        <v>-0.4658268222144997</v>
       </c>
       <c r="D37">
-        <v>1.062763692511043</v>
+        <v>-0.49816548244544</v>
+      </c>
+      <c r="E37">
+        <v>29</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1026,16 +1125,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.3536658261896766</v>
+        <v>0.1226134883264067</v>
       </c>
       <c r="C38">
-        <v>-1.31079763520325</v>
+        <v>0.7746275214911946</v>
       </c>
       <c r="D38">
-        <v>-0.5832712284009317</v>
+        <v>-2.968279244190768</v>
+      </c>
+      <c r="E38">
+        <v>29</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1043,16 +1145,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-1.042471835220286</v>
+        <v>-0.3820828271712777</v>
       </c>
       <c r="C39">
-        <v>-1.311369825882351</v>
+        <v>1.659689478648118</v>
       </c>
       <c r="D39">
-        <v>0.1390078668968395</v>
+        <v>-2.868817906388531</v>
+      </c>
+      <c r="E39">
+        <v>29</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1060,16 +1165,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.5981989920515891</v>
+        <v>-0.4115977226611245</v>
       </c>
       <c r="C40">
-        <v>-1.27027458502951</v>
+        <v>-0.456605864411155</v>
       </c>
       <c r="D40">
-        <v>0.05384375672995179</v>
+        <v>-0.992441389578278</v>
+      </c>
+      <c r="E40">
+        <v>29</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1077,16 +1185,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.165152914334104</v>
+        <v>0.1291387050927022</v>
       </c>
       <c r="C41">
-        <v>-1.073704978666019</v>
+        <v>0.3021518642022663</v>
       </c>
       <c r="D41">
-        <v>-1.084306418102515</v>
+        <v>-2.982986261929685</v>
+      </c>
+      <c r="E41">
+        <v>29</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1094,13 +1205,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1014198713208534</v>
+        <v>0.4961080135122238</v>
       </c>
       <c r="C42">
-        <v>-1.503514290266758</v>
+        <v>0.2208727659896955</v>
       </c>
       <c r="D42">
-        <v>-1.052948998678344</v>
+        <v>-2.898841968126679</v>
+      </c>
+      <c r="E42">
+        <v>29</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1111,16 +1225,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.6058802241089916</v>
+        <v>-0.1960023123988124</v>
       </c>
       <c r="C43">
-        <v>-1.444657414370107</v>
+        <v>0.6395210668943276</v>
       </c>
       <c r="D43">
-        <v>-0.2610052303630283</v>
+        <v>-2.578755143278652</v>
+      </c>
+      <c r="E43">
+        <v>29</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1128,16 +1245,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.282888774202295</v>
+        <v>0.1164813729018916</v>
       </c>
       <c r="C44">
-        <v>-1.636141660464619</v>
+        <v>0.3580140932232347</v>
       </c>
       <c r="D44">
-        <v>-0.40969081197603</v>
+        <v>-2.362075306773074</v>
+      </c>
+      <c r="E44">
+        <v>29</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1145,16 +1265,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.8997772469464859</v>
+        <v>-0.3872333241226518</v>
       </c>
       <c r="C45">
-        <v>-1.605114611054636</v>
+        <v>0.8316106262216398</v>
       </c>
       <c r="D45">
-        <v>0.4224045549143068</v>
+        <v>-1.901039595687406</v>
+      </c>
+      <c r="E45">
+        <v>29</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1162,16 +1285,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.2852999484087226</v>
+        <v>0.1685053943826194</v>
       </c>
       <c r="C46">
-        <v>-1.937291732659079</v>
+        <v>0.3239487015061298</v>
       </c>
       <c r="D46">
-        <v>0.1742457534697683</v>
+        <v>-1.696973888380265</v>
+      </c>
+      <c r="E46">
+        <v>29</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1179,16 +1305,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.797754900150153</v>
+        <v>-0.3860088557488959</v>
       </c>
       <c r="C47">
-        <v>-1.226024839291468</v>
+        <v>0.8039184482417507</v>
       </c>
       <c r="D47">
-        <v>-0.002419731296835703</v>
+        <v>-1.947525432175818</v>
+      </c>
+      <c r="E47">
+        <v>29</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1196,13 +1325,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.4355496672072801</v>
+        <v>5.159997126188553</v>
       </c>
       <c r="C48">
-        <v>-6.683468468745017</v>
+        <v>-2.815028541771636</v>
       </c>
       <c r="D48">
-        <v>-0.6618927365251653</v>
+        <v>-22.08808924911843</v>
+      </c>
+      <c r="E48">
+        <v>30</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1213,13 +1345,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9422266799175556</v>
+        <v>1.024838565542704</v>
       </c>
       <c r="C49">
-        <v>-1.855946772119462</v>
+        <v>-1.289374411222105</v>
       </c>
       <c r="D49">
-        <v>-0.260572735013031</v>
+        <v>-1.047039157573052</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1230,13 +1365,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-1.219311581151993</v>
+        <v>-0.8872073076064171</v>
       </c>
       <c r="C50">
-        <v>0.1083240051396983</v>
+        <v>1.485032183027732</v>
       </c>
       <c r="D50">
-        <v>-0.5714602516129027</v>
+        <v>-2.282024816353379</v>
+      </c>
+      <c r="E50">
+        <v>30</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1247,13 +1385,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-2.000391374211322</v>
+        <v>-1.616012154876678</v>
       </c>
       <c r="C51">
-        <v>0.3329350008217342</v>
+        <v>1.93262454395661</v>
       </c>
       <c r="D51">
-        <v>-0.5957663768046028</v>
+        <v>-2.821641523435917</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1264,13 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.1120749651483774</v>
+        <v>0.03499899085464242</v>
       </c>
       <c r="C52">
-        <v>-1.67963615855944</v>
+        <v>-1.069170999858439</v>
       </c>
       <c r="D52">
-        <v>-0.2886690208749884</v>
+        <v>-2.306332383362452</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1281,16 +1425,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.9895783443367951</v>
+        <v>-0.7061001571143873</v>
       </c>
       <c r="C53">
-        <v>-1.161840589501686</v>
+        <v>0.7851495616177973</v>
       </c>
       <c r="D53">
-        <v>-0.1774957119216137</v>
+        <v>-2.818140460323676</v>
+      </c>
+      <c r="E53">
+        <v>30</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1298,13 +1445,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.757764279686571</v>
+        <v>1.9102405433911</v>
       </c>
       <c r="C54">
-        <v>-1.034264039515734</v>
+        <v>-0.6139655267118742</v>
       </c>
       <c r="D54">
-        <v>-2.155945858774436</v>
+        <v>-2.733778436929239</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1315,16 +1465,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.691408463052597</v>
+        <v>-0.4475203757347168</v>
       </c>
       <c r="C55">
-        <v>-0.7008531376124021</v>
+        <v>0.2973403698695287</v>
       </c>
       <c r="D55">
-        <v>0.2234021885522501</v>
+        <v>-0.9683236175528205</v>
+      </c>
+      <c r="E55">
+        <v>30</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1332,16 +1485,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.5261627530018077</v>
+        <v>-0.1598115757704275</v>
       </c>
       <c r="C56">
-        <v>-1.187851180725347</v>
+        <v>0.5233246127552542</v>
       </c>
       <c r="D56">
-        <v>-0.1646709639207454</v>
+        <v>-1.875945810720001</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1349,13 +1505,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.515937350251852</v>
+        <v>1.589684218677831</v>
       </c>
       <c r="C57">
-        <v>-1.495883567956709</v>
+        <v>-0.9366676475504198</v>
       </c>
       <c r="D57">
-        <v>-1.739815145263085</v>
+        <v>-2.699180198660622</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1366,16 +1525,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.3873693467538391</v>
+        <v>-0.005562929699011621</v>
       </c>
       <c r="C58">
-        <v>-0.5808533051278282</v>
+        <v>1.010832691590458</v>
       </c>
       <c r="D58">
-        <v>-1.669826868116381</v>
+        <v>-3.284513560375983</v>
+      </c>
+      <c r="E58">
+        <v>30</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1383,13 +1545,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.5558616135886224</v>
+        <v>-0.4608888916186824</v>
       </c>
       <c r="C59">
-        <v>0.05400029127394679</v>
+        <v>0.1797868972298823</v>
       </c>
       <c r="D59">
-        <v>-2.076767349588055</v>
+        <v>-2.303303796242802</v>
+      </c>
+      <c r="E59">
+        <v>30</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -1400,13 +1565,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.042352420135687</v>
+        <v>1.203816914995865</v>
       </c>
       <c r="C60">
-        <v>-0.828070390530398</v>
+        <v>-0.2515649953202759</v>
       </c>
       <c r="D60">
-        <v>-1.395538228813503</v>
+        <v>-2.462044464205658</v>
+      </c>
+      <c r="E60">
+        <v>30</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1417,13 +1585,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.481683747975018</v>
+        <v>1.649875424379696</v>
       </c>
       <c r="C61">
-        <v>-1.234192882350933</v>
+        <v>-0.384156529835108</v>
       </c>
       <c r="D61">
-        <v>-1.927892156469611</v>
+        <v>-2.836248816656032</v>
+      </c>
+      <c r="E61">
+        <v>30</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1434,13 +1605,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.4842023725545275</v>
+        <v>0.6253524269121544</v>
       </c>
       <c r="C62">
-        <v>-1.320671964214284</v>
+        <v>-0.7866543949065883</v>
       </c>
       <c r="D62">
-        <v>-0.7942762676827512</v>
+        <v>-1.660557290943462</v>
+      </c>
+      <c r="E62">
+        <v>30</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1451,13 +1625,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.3362570636325137</v>
+        <v>0.5668570722624136</v>
       </c>
       <c r="C63">
-        <v>-1.242810133125745</v>
+        <v>-0.1884073575729672</v>
       </c>
       <c r="D63">
-        <v>-0.3633347584045338</v>
+        <v>-1.534437370604648</v>
+      </c>
+      <c r="E63">
+        <v>30</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1468,13 +1645,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1498519997547554</v>
+        <v>0.4059024046086943</v>
       </c>
       <c r="C64">
-        <v>-1.433988820393876</v>
+        <v>-0.1040856537900974</v>
       </c>
       <c r="D64">
-        <v>-0.2387294141616413</v>
+        <v>-1.71541564080526</v>
+      </c>
+      <c r="E64">
+        <v>30</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1485,16 +1665,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.6677667667726925</v>
+        <v>-0.5410191801656488</v>
       </c>
       <c r="C65">
-        <v>-0.8121822209811139</v>
+        <v>-0.003495277731235036</v>
       </c>
       <c r="D65">
-        <v>0.09569173348175386</v>
+        <v>-0.7829869164441534</v>
+      </c>
+      <c r="E65">
+        <v>30</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1502,13 +1685,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-1.375160252396092</v>
+        <v>-1.157462601739551</v>
       </c>
       <c r="C66">
-        <v>0.580655570493539</v>
+        <v>1.431399152355734</v>
       </c>
       <c r="D66">
-        <v>-2.085348799463751</v>
+        <v>-3.560185192971753</v>
+      </c>
+      <c r="E66">
+        <v>30</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -1519,16 +1705,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.7763134068228712</v>
+        <v>-0.449784625316803</v>
       </c>
       <c r="C67">
-        <v>-1.245770164402905</v>
+        <v>0.7854042268281696</v>
       </c>
       <c r="D67">
-        <v>-0.1256514164071724</v>
+        <v>-2.364325790951635</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1536,13 +1725,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-1.491530481361159</v>
+        <v>-1.158006830392839</v>
       </c>
       <c r="C68">
-        <v>-0.101377387853083</v>
+        <v>1.507443140460159</v>
       </c>
       <c r="D68">
-        <v>-0.8322436290880811</v>
+        <v>-2.062993348442072</v>
+      </c>
+      <c r="E68">
+        <v>30</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -1553,16 +1745,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-2.038850482745476</v>
+        <v>-1.905085609354363</v>
       </c>
       <c r="C69">
-        <v>0.3454514221289928</v>
+        <v>0.9597952464955402</v>
       </c>
       <c r="D69">
-        <v>0.5427198281389932</v>
+        <v>-0.4606533629813598</v>
+      </c>
+      <c r="E69">
+        <v>30</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1570,16 +1765,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.464412592794279</v>
+        <v>-0.2953468497160374</v>
       </c>
       <c r="C70">
-        <v>-0.5578380158718793</v>
+        <v>0.3349789625592887</v>
       </c>
       <c r="D70">
-        <v>-0.3303724272046581</v>
+        <v>-2.077283085288824</v>
+      </c>
+      <c r="E70">
+        <v>30</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1587,16 +1785,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-1.561367211910838</v>
+        <v>-1.565867639379428</v>
       </c>
       <c r="C71">
-        <v>-0.575429386353643</v>
+        <v>-0.1719995802539424</v>
       </c>
       <c r="D71">
-        <v>0.415205668934147</v>
+        <v>-0.5747864076997873</v>
+      </c>
+      <c r="E71">
+        <v>30</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1604,13 +1805,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.6452297693501571</v>
+        <v>-0.5542409120088408</v>
       </c>
       <c r="C72">
-        <v>-0.3952606912398227</v>
+        <v>-0.06205714885171509</v>
       </c>
       <c r="D72">
-        <v>-0.5919431831836822</v>
+        <v>-1.185078013027687</v>
+      </c>
+      <c r="E72">
+        <v>30</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -1621,13 +1825,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.03216155845231627</v>
+        <v>0.2024912418240903</v>
       </c>
       <c r="C73">
-        <v>-1.024365262436326</v>
+        <v>-0.1900875024090225</v>
       </c>
       <c r="D73">
-        <v>-0.5862299833710308</v>
+        <v>-1.544365793785371</v>
+      </c>
+      <c r="E73">
+        <v>30</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1638,13 +1845,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.9593095159926841</v>
+        <v>-0.6825892163412161</v>
       </c>
       <c r="C74">
-        <v>-0.4477385804120551</v>
+        <v>0.8527495226041508</v>
       </c>
       <c r="D74">
-        <v>-0.477970567280957</v>
+        <v>-2.25603644211065</v>
+      </c>
+      <c r="E74">
+        <v>30</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -1655,16 +1865,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-1.239950886080792</v>
+        <v>-1.038748350537995</v>
       </c>
       <c r="C75">
-        <v>-0.1850737112220352</v>
+        <v>0.6014346963989377</v>
       </c>
       <c r="D75">
-        <v>0.003025677979551999</v>
+        <v>-1.562229630770926</v>
+      </c>
+      <c r="E75">
+        <v>30</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1672,13 +1885,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.224895907216635</v>
+        <v>-0.03444150071031182</v>
       </c>
       <c r="C76">
-        <v>-1.038502599807284</v>
+        <v>-0.1364807273666966</v>
       </c>
       <c r="D76">
-        <v>-0.8584710020589993</v>
+        <v>-2.203076296236211</v>
+      </c>
+      <c r="E76">
+        <v>30</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -1689,13 +1905,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.6191605312588306</v>
+        <v>-0.206055312970113</v>
       </c>
       <c r="C77">
-        <v>-0.2765694395157726</v>
+        <v>1.589008514934331</v>
       </c>
       <c r="D77">
-        <v>-1.080715468265371</v>
+        <v>-2.876747717445504</v>
+      </c>
+      <c r="E77">
+        <v>30</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -1706,16 +1925,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.3058262302708383</v>
+        <v>-0.1053774313394404</v>
       </c>
       <c r="C78">
-        <v>-0.4242571515313138</v>
+        <v>0.4005762937448685</v>
       </c>
       <c r="D78">
-        <v>-1.411619117158332</v>
+        <v>-2.247323749401243</v>
+      </c>
+      <c r="E78">
+        <v>30</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1723,13 +1945,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.4399587796372175</v>
+        <v>0.01984723912553688</v>
       </c>
       <c r="C79">
-        <v>-0.1476058789446755</v>
+        <v>1.830355208956748</v>
       </c>
       <c r="D79">
-        <v>-2.158105551257237</v>
+        <v>-3.569191926215216</v>
+      </c>
+      <c r="E79">
+        <v>30</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -1740,16 +1965,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.2157959169103849</v>
+        <v>0.1938191551264934</v>
       </c>
       <c r="C80">
-        <v>-1.505288727679637</v>
+        <v>0.6345424188602611</v>
       </c>
       <c r="D80">
-        <v>-0.7928759187759372</v>
+        <v>-2.295376874025286</v>
+      </c>
+      <c r="E80">
+        <v>30</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1757,13 +1985,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.9948649417579493</v>
+        <v>-0.7532829196119923</v>
       </c>
       <c r="C81">
-        <v>-0.01782350955982159</v>
+        <v>1.157530116811512</v>
       </c>
       <c r="D81">
-        <v>-0.6485022347520094</v>
+        <v>-1.924963177844114</v>
+      </c>
+      <c r="E81">
+        <v>30</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -1774,16 +2005,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.3505995703589979</v>
+        <v>-0.2272908265347531</v>
       </c>
       <c r="C82">
-        <v>-0.6505460586362355</v>
+        <v>-0.1964529454893622</v>
       </c>
       <c r="D82">
-        <v>-0.5188864258331681</v>
+        <v>-1.026617981968658</v>
+      </c>
+      <c r="E82">
+        <v>30</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1791,16 +2025,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-1.435794729973936</v>
+        <v>-1.346287405208898</v>
       </c>
       <c r="C83">
-        <v>-0.6891777208511318</v>
+        <v>0.08394430578884449</v>
       </c>
       <c r="D83">
-        <v>0.4141981664866848</v>
+        <v>-0.812803082597662</v>
+      </c>
+      <c r="E83">
+        <v>30</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -1808,13 +2045,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.1745445298873169</v>
+        <v>0.2803607816942724</v>
       </c>
       <c r="C84">
-        <v>-1.30378833621786</v>
+        <v>-0.7119738247666725</v>
       </c>
       <c r="D84">
-        <v>0.000906851288649535</v>
+        <v>-1.033082599939213</v>
+      </c>
+      <c r="E84">
+        <v>30</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -1825,16 +2065,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.9654289429462718</v>
+        <v>-0.4952022949267556</v>
       </c>
       <c r="C85">
-        <v>-1.138020454326136</v>
+        <v>1.100389457292988</v>
       </c>
       <c r="D85">
-        <v>0.1040756719565894</v>
+        <v>-2.608252735164026</v>
+      </c>
+      <c r="E85">
+        <v>30</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -1842,16 +2085,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-1.679239164747778</v>
+        <v>-1.351085686108052</v>
       </c>
       <c r="C86">
-        <v>-0.3826457537634792</v>
+        <v>1.327682597119741</v>
       </c>
       <c r="D86">
-        <v>0.02346658492505216</v>
+        <v>-1.617633043214048</v>
+      </c>
+      <c r="E86">
+        <v>30</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -1859,13 +2105,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.421690636806928</v>
+        <v>1.546358090127667</v>
       </c>
       <c r="C87">
-        <v>-1.233771429582828</v>
+        <v>-0.5988814765960616</v>
       </c>
       <c r="D87">
-        <v>-1.634339486063181</v>
+        <v>-2.41705960336206</v>
+      </c>
+      <c r="E87">
+        <v>30</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -1876,13 +2125,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.0487275438774204</v>
+        <v>0.2147851400621867</v>
       </c>
       <c r="C88">
-        <v>-0.9494088333380087</v>
+        <v>0.1758289850646777</v>
       </c>
       <c r="D88">
-        <v>-0.7246307049003348</v>
+        <v>-2.11190053705201</v>
+      </c>
+      <c r="E88">
+        <v>30</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -1893,16 +2145,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.7469255622660799</v>
+        <v>-0.5606726920619034</v>
       </c>
       <c r="C89">
-        <v>-0.7789047778123748</v>
+        <v>0.07048216132071172</v>
       </c>
       <c r="D89">
-        <v>0.03373644071265491</v>
+        <v>-1.418565954079632</v>
+      </c>
+      <c r="E89">
+        <v>30</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -1910,13 +2165,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.06991605975845783</v>
+        <v>0.1835499058015451</v>
       </c>
       <c r="C90">
-        <v>-1.076959659095825</v>
+        <v>-0.008066598039342954</v>
       </c>
       <c r="D90">
-        <v>-0.5782162112523733</v>
+        <v>-2.267201081139365</v>
+      </c>
+      <c r="E90">
+        <v>30</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -1927,16 +2185,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.7144265861771243</v>
+        <v>-0.3667339990873093</v>
       </c>
       <c r="C91">
-        <v>-0.6852452212562143</v>
+        <v>0.8456498575467137</v>
       </c>
       <c r="D91">
-        <v>-0.4333054490468612</v>
+        <v>-2.333504243538018</v>
+      </c>
+      <c r="E91">
+        <v>30</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -1944,13 +2205,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.201215798298422</v>
+        <v>0.3213540756749653</v>
       </c>
       <c r="C92">
-        <v>-1.037266018902872</v>
+        <v>-0.3033806040011177</v>
       </c>
       <c r="D92">
-        <v>-0.9196211482256681</v>
+        <v>-1.875789839707319</v>
+      </c>
+      <c r="E92">
+        <v>30</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -1961,13 +2225,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.6042502275019774</v>
+        <v>0.7919943398346954</v>
       </c>
       <c r="C93">
-        <v>-1.383358091722642</v>
+        <v>-0.3721040348843821</v>
       </c>
       <c r="D93">
-        <v>-0.7166799190380105</v>
+        <v>-1.930213121127635</v>
+      </c>
+      <c r="E93">
+        <v>30</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -1978,16 +2245,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-1.047071195068819</v>
+        <v>-0.8936139934912015</v>
       </c>
       <c r="C94">
-        <v>-0.5395327451799038</v>
+        <v>0.2406592321099518</v>
       </c>
       <c r="D94">
-        <v>0.03564457640844121</v>
+        <v>-1.301691426328903</v>
+      </c>
+      <c r="E94">
+        <v>30</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -1995,13 +2265,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.921669816022052</v>
+        <v>0.9824406463448758</v>
       </c>
       <c r="C95">
-        <v>-1.46922918539897</v>
+        <v>-1.071366229035929</v>
       </c>
       <c r="D95">
-        <v>-0.4631170306399978</v>
+        <v>-1.238798705834963</v>
+      </c>
+      <c r="E95">
+        <v>30</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2012,16 +2285,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-3.2700741086176</v>
+        <v>0.2816742363376017</v>
       </c>
       <c r="C96">
-        <v>-9.512573058177002</v>
+        <v>-4.622061243759028</v>
       </c>
       <c r="D96">
-        <v>2.840521551455629</v>
+        <v>-24.115209850482</v>
+      </c>
+      <c r="E96">
+        <v>31</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2029,16 +2305,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-2.307820161335729</v>
+        <v>-2.307631975283396</v>
       </c>
       <c r="C97">
-        <v>-0.7412740881823481</v>
+        <v>2.0491106149836</v>
       </c>
       <c r="D97">
-        <v>0.4676868705536573</v>
+        <v>-3.323955721598853</v>
+      </c>
+      <c r="E97">
+        <v>31</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2046,16 +2325,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-1.804197878798276</v>
+        <v>-1.782992595818544</v>
       </c>
       <c r="C98">
-        <v>-1.667178381852896</v>
+        <v>0.6646148170467874</v>
       </c>
       <c r="D98">
-        <v>0.5483873255016594</v>
+        <v>-3.809030867710777</v>
+      </c>
+      <c r="E98">
+        <v>31</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2063,16 +2345,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-1.715202123224429</v>
+        <v>-1.63979931722031</v>
       </c>
       <c r="C99">
-        <v>-0.6248077531969238</v>
+        <v>0.7229738540130539</v>
       </c>
       <c r="D99">
-        <v>0.386166396887155</v>
+        <v>-1.387385026604429</v>
+      </c>
+      <c r="E99">
+        <v>31</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2080,16 +2365,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-2.693728794245588</v>
+        <v>-2.559499792572949</v>
       </c>
       <c r="C100">
-        <v>-2.105149333015353</v>
+        <v>1.459494394530674</v>
       </c>
       <c r="D100">
-        <v>1.296565808524629</v>
+        <v>-4.102612487596928</v>
+      </c>
+      <c r="E100">
+        <v>31</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2097,16 +2385,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-1.587651748954495</v>
+        <v>-1.601980379848956</v>
       </c>
       <c r="C101">
-        <v>-1.037989536440377</v>
+        <v>0.9372164499432056</v>
       </c>
       <c r="D101">
-        <v>0.1167734862279645</v>
+        <v>-4.145618953607459</v>
+      </c>
+      <c r="E101">
+        <v>31</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2114,16 +2405,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.9633461252055986</v>
+        <v>-0.8881705522180918</v>
       </c>
       <c r="C102">
-        <v>-1.13640517293122</v>
+        <v>0.3858548250772391</v>
       </c>
       <c r="D102">
-        <v>-0.2721899856114479</v>
+        <v>-2.928072550989132</v>
+      </c>
+      <c r="E102">
+        <v>31</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2131,16 +2425,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-1.794157429121218</v>
+        <v>-1.732308198393789</v>
       </c>
       <c r="C103">
-        <v>-1.398698688824363</v>
+        <v>1.031871745847037</v>
       </c>
       <c r="D103">
-        <v>0.7631218369529804</v>
+        <v>-2.990807758969781</v>
+      </c>
+      <c r="E103">
+        <v>31</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2148,16 +2445,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-1.876881264924849</v>
+        <v>-1.588739442088556</v>
       </c>
       <c r="C104">
-        <v>-1.923732394093523</v>
+        <v>1.612279478833152</v>
       </c>
       <c r="D104">
-        <v>0.8410609044078166</v>
+        <v>-3.451171887022483</v>
+      </c>
+      <c r="E104">
+        <v>31</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2165,16 +2465,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-1.975123207727373</v>
+        <v>-1.982861453896499</v>
       </c>
       <c r="C105">
-        <v>-1.494189518091961</v>
+        <v>0.7001937492626491</v>
       </c>
       <c r="D105">
-        <v>1.172922611743067</v>
+        <v>-2.687861774296471</v>
+      </c>
+      <c r="E105">
+        <v>31</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2182,16 +2485,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-1.040655629603103</v>
+        <v>-1.665132848236141</v>
       </c>
       <c r="C106">
-        <v>-3.014072098727904</v>
+        <v>-1.337456967276679</v>
       </c>
       <c r="D106">
-        <v>-0.5550188043485577</v>
+        <v>-8.932124655148748</v>
+      </c>
+      <c r="E106">
+        <v>31</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2199,13 +2505,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-1.881887023719512</v>
+        <v>-1.85709165147754</v>
       </c>
       <c r="C107">
-        <v>-0.275111933775235</v>
+        <v>1.256635653760755</v>
       </c>
       <c r="D107">
-        <v>-0.3889836647027941</v>
+        <v>-2.280853299018861</v>
+      </c>
+      <c r="E107">
+        <v>31</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -2216,13 +2525,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.1295519665902105</v>
+        <v>6.036386812717358</v>
       </c>
       <c r="C108">
-        <v>-6.661809646892245</v>
+        <v>-1.25563223094604</v>
       </c>
       <c r="D108">
-        <v>-2.236864556180558</v>
+        <v>-23.98730652800093</v>
+      </c>
+      <c r="E108">
+        <v>31</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -2233,16 +2545,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-1.392764131388008</v>
+        <v>-0.07582123117865769</v>
       </c>
       <c r="C109">
-        <v>-0.7254472908904969</v>
+        <v>2.423719115026886</v>
       </c>
       <c r="D109">
-        <v>-0.6655225497082292</v>
+        <v>-3.388365643791973</v>
+      </c>
+      <c r="E109">
+        <v>31</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2250,16 +2565,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-1.470328155479808</v>
+        <v>-0.2824606239586409</v>
       </c>
       <c r="C110">
-        <v>-0.673755130147948</v>
+        <v>1.647814581749521</v>
       </c>
       <c r="D110">
-        <v>0.7198897372158388</v>
+        <v>-2.399878070187225</v>
+      </c>
+      <c r="E110">
+        <v>31</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2267,16 +2585,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.2605274340169736</v>
+        <v>0.6963973113803608</v>
       </c>
       <c r="C111">
-        <v>-1.255859667209736</v>
+        <v>0.1460616282267775</v>
       </c>
       <c r="D111">
-        <v>0.2371641146030863</v>
+        <v>-2.343131817555533</v>
+      </c>
+      <c r="E111">
+        <v>31</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2284,16 +2605,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.8839203488412953</v>
+        <v>0.1834260191310169</v>
       </c>
       <c r="C112">
-        <v>-0.7587748437236255</v>
+        <v>1.064000894645176</v>
       </c>
       <c r="D112">
-        <v>-0.6778146204535401</v>
+        <v>-4.849874919569666</v>
+      </c>
+      <c r="E112">
+        <v>31</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2301,16 +2625,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-1.055910377309444</v>
+        <v>-0.3720125424121727</v>
       </c>
       <c r="C113">
-        <v>-0.987163736026982</v>
+        <v>0.7915641407166778</v>
       </c>
       <c r="D113">
-        <v>0.4165547246140939</v>
+        <v>-1.50319138970492</v>
+      </c>
+      <c r="E113">
+        <v>31</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2318,16 +2645,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-1.311669982631335</v>
+        <v>-0.1544665828915037</v>
       </c>
       <c r="C114">
-        <v>-0.437849110229598</v>
+        <v>1.766558925668022</v>
       </c>
       <c r="D114">
-        <v>-0.3020495931379833</v>
+        <v>-3.363287107543474</v>
+      </c>
+      <c r="E114">
+        <v>31</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2335,16 +2665,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-3.062713700301014</v>
+        <v>-2.485854652078636</v>
       </c>
       <c r="C115">
-        <v>-3.820545106981129</v>
+        <v>0.4551746366894565</v>
       </c>
       <c r="D115">
-        <v>1.986094206471465</v>
+        <v>-7.074076305526091</v>
+      </c>
+      <c r="E115">
+        <v>31</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2352,13 +2685,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-1.229203174852877</v>
+        <v>-0.002442760746575345</v>
       </c>
       <c r="C116">
-        <v>-0.09029552410021457</v>
+        <v>1.878694675573886</v>
       </c>
       <c r="D116">
-        <v>-0.1266477766407673</v>
+        <v>-3.086123984874657</v>
+      </c>
+      <c r="E116">
+        <v>31</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -2369,13 +2705,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-1.043518135983877</v>
+        <v>-0.2326215239900074</v>
       </c>
       <c r="C117">
-        <v>0.6304493312193236</v>
+        <v>1.800290428424367</v>
       </c>
       <c r="D117">
-        <v>-1.164037639560046</v>
+        <v>-3.352461988320389</v>
+      </c>
+      <c r="E117">
+        <v>32</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -2386,13 +2725,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-1.446473447638896</v>
+        <v>-0.6723038088558595</v>
       </c>
       <c r="C118">
-        <v>0.1306296904836917</v>
+        <v>1.57792840739973</v>
       </c>
       <c r="D118">
-        <v>-0.9180812484655209</v>
+        <v>-3.119635589065547</v>
+      </c>
+      <c r="E118">
+        <v>32</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -2403,13 +2745,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-1.761940422261419</v>
+        <v>-1.274565070136137</v>
       </c>
       <c r="C119">
-        <v>0.5671234902019782</v>
+        <v>1.310599865616668</v>
       </c>
       <c r="D119">
-        <v>-1.08032485432915</v>
+        <v>-2.551439314048944</v>
+      </c>
+      <c r="E119">
+        <v>32</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -2420,16 +2765,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.8607416889923408</v>
+        <v>0.0816076986168659</v>
       </c>
       <c r="C120">
-        <v>-0.1070817468880516</v>
+        <v>1.22906884448206</v>
       </c>
       <c r="D120">
-        <v>-0.08663254054244673</v>
+        <v>-1.888471930924802</v>
+      </c>
+      <c r="E120">
+        <v>32</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2437,13 +2785,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-1.067558451478656</v>
+        <v>-0.45999229416339</v>
       </c>
       <c r="C121">
-        <v>0.2495211082742247</v>
+        <v>1.33183808399647</v>
       </c>
       <c r="D121">
-        <v>-0.3670176115357487</v>
+        <v>-1.680246525089649</v>
+      </c>
+      <c r="E121">
+        <v>32</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -2454,13 +2805,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.5563230416427426</v>
+        <v>1.204942011555099</v>
       </c>
       <c r="C122">
-        <v>-0.468128206474724</v>
+        <v>2.502269617666752</v>
       </c>
       <c r="D122">
-        <v>-0.6508021060374299</v>
+        <v>-4.53431812562471</v>
+      </c>
+      <c r="E122">
+        <v>32</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -2471,13 +2825,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.4683950112479074</v>
+        <v>0.01935017652077198</v>
       </c>
       <c r="C123">
-        <v>0.02065447568595036</v>
+        <v>0.7959783059865606</v>
       </c>
       <c r="D123">
-        <v>-0.6103614922538966</v>
+        <v>-1.791006680315411</v>
+      </c>
+      <c r="E123">
+        <v>32</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -2488,13 +2845,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>4.889883253555248</v>
+        <v>15.72537081123899</v>
       </c>
       <c r="C124">
-        <v>-7.684553623202588</v>
+        <v>-4.031955279177746</v>
       </c>
       <c r="D124">
-        <v>-6.074768306997566</v>
+        <v>-28.70760411786414</v>
+      </c>
+      <c r="E124">
+        <v>32</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2505,13 +2865,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.1335242715666618</v>
+        <v>0.854826896273968</v>
       </c>
       <c r="C125">
-        <v>-1.604615905289459</v>
+        <v>0.3158818976774667</v>
       </c>
       <c r="D125">
-        <v>-0.3431672113947798</v>
+        <v>-1.676279325480054</v>
+      </c>
+      <c r="E125">
+        <v>32</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -2522,16 +2885,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.1362564449196659</v>
+        <v>1.214277086353024</v>
       </c>
       <c r="C126">
-        <v>-2.676003540310209</v>
+        <v>1.809523560526428</v>
       </c>
       <c r="D126">
-        <v>-1.383723882140889</v>
+        <v>-4.291182522614737</v>
+      </c>
+      <c r="E126">
+        <v>32</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2539,13 +2905,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.4844760461750726</v>
+        <v>1.030097665641738</v>
       </c>
       <c r="C127">
-        <v>-0.9076922692904537</v>
+        <v>0.08779125451153191</v>
       </c>
       <c r="D127">
-        <v>-0.926703519563599</v>
+        <v>-2.378571219633372</v>
+      </c>
+      <c r="E127">
+        <v>32</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2556,13 +2925,16 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.4952751223410004</v>
+        <v>1.126454250623225</v>
       </c>
       <c r="C128">
-        <v>-1.049434002547834</v>
+        <v>0.501344714649224</v>
       </c>
       <c r="D128">
-        <v>-2.34552291745637</v>
+        <v>-3.77869132936718</v>
+      </c>
+      <c r="E128">
+        <v>32</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -2573,16 +2945,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.2836944045679735</v>
+        <v>0.3479362280606983</v>
       </c>
       <c r="C129">
-        <v>-0.8900419479353882</v>
+        <v>0.6462509539522863</v>
       </c>
       <c r="D129">
-        <v>-0.4046309907753</v>
+        <v>-1.884584719847195</v>
+      </c>
+      <c r="E129">
+        <v>32</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2590,16 +2965,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.1793049479261621</v>
+        <v>1.405965106655914</v>
       </c>
       <c r="C130">
-        <v>-1.061747364945287</v>
+        <v>1.552402996372684</v>
       </c>
       <c r="D130">
-        <v>-0.4379435965196544</v>
+        <v>-3.79048934724144</v>
+      </c>
+      <c r="E130">
+        <v>32</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2607,13 +2985,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.04740120285131177</v>
+        <v>0.7921876648233912</v>
       </c>
       <c r="C131">
-        <v>-1.085264185519076</v>
+        <v>0.5053294334219813</v>
       </c>
       <c r="D131">
-        <v>-0.8387610730933351</v>
+        <v>-2.715980881295067</v>
+      </c>
+      <c r="E131">
+        <v>32</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -2624,13 +3005,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.8029613591524047</v>
+        <v>1.447982495310712</v>
       </c>
       <c r="C132">
-        <v>-0.6844414945034171</v>
+        <v>0.1746775641878633</v>
       </c>
       <c r="D132">
-        <v>-1.809710846130182</v>
+        <v>-3.790860398166169</v>
+      </c>
+      <c r="E132">
+        <v>32</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -2641,13 +3025,16 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.6417062307596014</v>
+        <v>1.299285593146125</v>
       </c>
       <c r="C133">
-        <v>-0.2874150269328271</v>
+        <v>2.579168365973176</v>
       </c>
       <c r="D133">
-        <v>-1.164051186633086</v>
+        <v>-5.822161400943269</v>
+      </c>
+      <c r="E133">
+        <v>32</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -2658,16 +3045,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.5868931073064796</v>
+        <v>0.1994429535688327</v>
       </c>
       <c r="C134">
-        <v>-0.8203906338341607</v>
+        <v>0.4310735925090738</v>
       </c>
       <c r="D134">
-        <v>-0.4589347503923585</v>
+        <v>-3.440716368493754</v>
+      </c>
+      <c r="E134">
+        <v>32</v>
       </c>
       <c r="F134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -2675,13 +3065,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-0.4316183759469729</v>
+        <v>0.4246193385535728</v>
       </c>
       <c r="C135">
-        <v>-0.1746896196928741</v>
+        <v>1.088866474060931</v>
       </c>
       <c r="D135">
-        <v>-0.6281207436007797</v>
+        <v>-2.659896340112712</v>
+      </c>
+      <c r="E135">
+        <v>32</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -2692,13 +3085,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.7923915651196316</v>
+        <v>1.01685620105129</v>
       </c>
       <c r="C136">
-        <v>-1.409288632393779</v>
+        <v>-0.9012361702497065</v>
       </c>
       <c r="D136">
-        <v>-1.254179313576965</v>
+        <v>-2.384185056729166</v>
+      </c>
+      <c r="E136">
+        <v>32</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -2709,13 +3105,16 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.1767743492097715</v>
+        <v>-0.02644733446856562</v>
       </c>
       <c r="C137">
-        <v>-0.4952935771319309</v>
+        <v>-0.2142169559051714</v>
       </c>
       <c r="D137">
-        <v>-0.8103060634484601</v>
+        <v>-1.647837082094453</v>
+      </c>
+      <c r="E137">
+        <v>32</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -2726,13 +3125,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.5714716343097516</v>
+        <v>-0.3199028860599529</v>
       </c>
       <c r="C138">
-        <v>-0.06414077040344446</v>
+        <v>0.3812554160018022</v>
       </c>
       <c r="D138">
-        <v>-1.074966319161864</v>
+        <v>-1.872286937353879</v>
+      </c>
+      <c r="E138">
+        <v>32</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -2743,16 +3145,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-3.905451379668478</v>
+        <v>-3.057724224283218</v>
       </c>
       <c r="C139">
-        <v>-6.807659847741343</v>
+        <v>0.4667461979983394</v>
       </c>
       <c r="D139">
-        <v>1.941745751304151</v>
+        <v>-12.04397652790407</v>
+      </c>
+      <c r="E139">
+        <v>32</v>
       </c>
       <c r="F139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -2760,16 +3165,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-0.5079335042668333</v>
+        <v>1.320021308750386</v>
       </c>
       <c r="C140">
-        <v>-0.6261376565297747</v>
+        <v>2.069478457990231</v>
       </c>
       <c r="D140">
-        <v>-0.257735135951854</v>
+        <v>-4.091949624363045</v>
+      </c>
+      <c r="E140">
+        <v>32</v>
       </c>
       <c r="F140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -2777,13 +3185,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.711274052060036</v>
+        <v>1.018507523749022</v>
       </c>
       <c r="C141">
-        <v>-0.8276579146052438</v>
+        <v>-0.03057055264665987</v>
       </c>
       <c r="D141">
-        <v>-1.802459129411559</v>
+        <v>-2.569423488247096</v>
+      </c>
+      <c r="E141">
+        <v>32</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -2794,13 +3205,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.6237649340166935</v>
+        <v>1.22285432319842</v>
       </c>
       <c r="C142">
-        <v>-1.02351268347996</v>
+        <v>0.1464690433750414</v>
       </c>
       <c r="D142">
-        <v>-1.093116819552901</v>
+        <v>-2.890151005107665</v>
+      </c>
+      <c r="E142">
+        <v>32</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -2811,16 +3225,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.5089745891908407</v>
+        <v>0.172378614609566</v>
       </c>
       <c r="C143">
-        <v>-1.176928238867863</v>
+        <v>0.6017883854609578</v>
       </c>
       <c r="D143">
-        <v>-0.3005815844561232</v>
+        <v>-1.630977428819684</v>
+      </c>
+      <c r="E143">
+        <v>32</v>
       </c>
       <c r="F143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -2828,16 +3245,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.8199395122695969</v>
+        <v>-0.1429938906695616</v>
       </c>
       <c r="C144">
-        <v>-1.76480055456269</v>
+        <v>0.2073745742184931</v>
       </c>
       <c r="D144">
-        <v>1.180257114587702</v>
+        <v>-0.3079279539323063</v>
+      </c>
+      <c r="E144">
+        <v>32</v>
       </c>
       <c r="F144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -2845,16 +3265,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-2.191331718443583</v>
+        <v>-1.899013767771635</v>
       </c>
       <c r="C145">
-        <v>-5.353180696648859</v>
+        <v>-1.65372699759071</v>
       </c>
       <c r="D145">
-        <v>1.55018590644947</v>
+        <v>-7.015629460755799</v>
+      </c>
+      <c r="E145">
+        <v>32</v>
       </c>
       <c r="F145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -2862,16 +3285,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-1.824892065312921</v>
+        <v>-1.129798684684968</v>
       </c>
       <c r="C146">
-        <v>-3.400537182421569</v>
+        <v>-0.5369222486841915</v>
       </c>
       <c r="D146">
-        <v>0.8431617004345185</v>
+        <v>-7.916254454832718</v>
+      </c>
+      <c r="E146">
+        <v>32</v>
       </c>
       <c r="F146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -2879,16 +3305,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-0.06218975634720914</v>
+        <v>0.2158956353774095</v>
       </c>
       <c r="C147">
-        <v>-1.230727453108877</v>
+        <v>-0.4974767671151092</v>
       </c>
       <c r="D147">
-        <v>0.1724023882930418</v>
+        <v>-0.9431935859552039</v>
+      </c>
+      <c r="E147">
+        <v>32</v>
       </c>
       <c r="F147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -2896,16 +3325,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.7020635461469414</v>
+        <v>-0.02024910063859675</v>
       </c>
       <c r="C148">
-        <v>-1.23038046269638</v>
+        <v>0.2238015870141971</v>
       </c>
       <c r="D148">
-        <v>0.1534546982130705</v>
+        <v>-1.270462797283913</v>
+      </c>
+      <c r="E148">
+        <v>32</v>
       </c>
       <c r="F148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -2913,16 +3345,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.9648978600304489</v>
+        <v>-0.5288390536885751</v>
       </c>
       <c r="C149">
-        <v>-0.6233270153511258</v>
+        <v>0.4505249796488149</v>
       </c>
       <c r="D149">
-        <v>0.1965009846824113</v>
+        <v>-1.215429572577181</v>
+      </c>
+      <c r="E149">
+        <v>32</v>
       </c>
       <c r="F149">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -2930,16 +3365,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-0.02674280769285953</v>
+        <v>0.57790681138267</v>
       </c>
       <c r="C150">
-        <v>-1.361816509155019</v>
+        <v>-0.01225485787490477</v>
       </c>
       <c r="D150">
-        <v>0.01906850958703121</v>
+        <v>-1.429561269634888</v>
+      </c>
+      <c r="E150">
+        <v>32</v>
       </c>
       <c r="F150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -2947,13 +3385,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.4763586680151586</v>
+        <v>0.9710233901744894</v>
       </c>
       <c r="C151">
-        <v>-0.7755003421254136</v>
+        <v>0.07031716466208837</v>
       </c>
       <c r="D151">
-        <v>-1.376229696812363</v>
+        <v>-2.476611102166423</v>
+      </c>
+      <c r="E151">
+        <v>32</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -2964,16 +3405,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.2859645556964647</v>
+        <v>0.5522405387591802</v>
       </c>
       <c r="C152">
-        <v>-0.7692318446925929</v>
+        <v>1.222853741234434</v>
       </c>
       <c r="D152">
-        <v>-0.8548046573802844</v>
+        <v>-2.627791772807777</v>
+      </c>
+      <c r="E152">
+        <v>32</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -2981,16 +3425,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-2.821119251304786</v>
+        <v>-1.50871451953188</v>
       </c>
       <c r="C153">
-        <v>-5.498719632303754</v>
+        <v>1.424894812194519</v>
       </c>
       <c r="D153">
-        <v>0.4821063270611524</v>
+        <v>-12.88394697653656</v>
+      </c>
+      <c r="E153">
+        <v>32</v>
       </c>
       <c r="F153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -2998,16 +3445,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.1668922413118161</v>
+        <v>0.3734057801590391</v>
       </c>
       <c r="C154">
-        <v>-1.49171886237615</v>
+        <v>-0.2646713516314682</v>
       </c>
       <c r="D154">
-        <v>0.1853696037047414</v>
+        <v>-0.8150541517836563</v>
+      </c>
+      <c r="E154">
+        <v>33</v>
       </c>
       <c r="F154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3015,16 +3465,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.629403882471777</v>
+        <v>-0.007430191872325853</v>
       </c>
       <c r="C155">
-        <v>-2.227684786399427</v>
+        <v>1.284518585249261</v>
       </c>
       <c r="D155">
-        <v>0.07772333417247002</v>
+        <v>-2.059306574960388</v>
+      </c>
+      <c r="E155">
+        <v>33</v>
       </c>
       <c r="F155">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3032,16 +3485,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-1.270385375242929</v>
+        <v>-1.101127598682515</v>
       </c>
       <c r="C156">
-        <v>-0.9010666829585949</v>
+        <v>-0.01557128941358743</v>
       </c>
       <c r="D156">
-        <v>0.6162747965923392</v>
+        <v>-0.4516514043460127</v>
+      </c>
+      <c r="E156">
+        <v>33</v>
       </c>
       <c r="F156">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3049,16 +3505,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-2.580192183017914</v>
+        <v>-2.939531649090485</v>
       </c>
       <c r="C157">
-        <v>-4.098942252915528</v>
+        <v>-2.252064093746595</v>
       </c>
       <c r="D157">
-        <v>2.225019919055805</v>
+        <v>-6.319622804583855</v>
+      </c>
+      <c r="E157">
+        <v>33</v>
       </c>
       <c r="F157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3066,16 +3525,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-1.645276801154686</v>
+        <v>-1.414140072902539</v>
       </c>
       <c r="C158">
-        <v>-0.7911396425685813</v>
+        <v>0.378255792674111</v>
       </c>
       <c r="D158">
-        <v>0.637019977831759</v>
+        <v>-1.514321076906314</v>
+      </c>
+      <c r="E158">
+        <v>33</v>
       </c>
       <c r="F158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3083,16 +3545,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0.8457853652762285</v>
+        <v>-0.7387146159290611</v>
       </c>
       <c r="C159">
-        <v>-1.040208925890841</v>
+        <v>-0.2941709472862455</v>
       </c>
       <c r="D159">
-        <v>0.0344119817874855</v>
+        <v>-1.620601075460696</v>
+      </c>
+      <c r="E159">
+        <v>33</v>
       </c>
       <c r="F159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3100,13 +3565,16 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-0.4405941039545007</v>
+        <v>-0.4504969915229466</v>
       </c>
       <c r="C160">
-        <v>-0.7861952887842143</v>
+        <v>-0.6484365724232677</v>
       </c>
       <c r="D160">
-        <v>-0.07510572148975425</v>
+        <v>-0.399539431229897</v>
+      </c>
+      <c r="E160">
+        <v>33</v>
       </c>
       <c r="F160">
         <v>2</v>
@@ -3117,16 +3585,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-1.32325738383379</v>
+        <v>-1.337065088986208</v>
       </c>
       <c r="C161">
-        <v>-0.3821819004873794</v>
+        <v>-0.18269815994889</v>
       </c>
       <c r="D161">
-        <v>0.288482542984957</v>
+        <v>-0.3337936023228241</v>
+      </c>
+      <c r="E161">
+        <v>33</v>
       </c>
       <c r="F161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3134,16 +3605,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.4814577600653936</v>
+        <v>-0.2272981839393857</v>
       </c>
       <c r="C162">
-        <v>-0.8722904784484723</v>
+        <v>0.4009583619009074</v>
       </c>
       <c r="D162">
-        <v>0.2669392756561694</v>
+        <v>-1.428899058369186</v>
+      </c>
+      <c r="E162">
+        <v>33</v>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3151,16 +3625,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-1.581098473921601</v>
+        <v>-1.303460109132796</v>
       </c>
       <c r="C163">
-        <v>-0.9939862702228845</v>
+        <v>0.7356573771348229</v>
       </c>
       <c r="D163">
-        <v>1.267712558851014</v>
+        <v>-0.5394618095096593</v>
+      </c>
+      <c r="E163">
+        <v>33</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3168,13 +3645,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-1.064101543646707</v>
+        <v>-0.9652709875317661</v>
       </c>
       <c r="C164">
-        <v>-1.299103912650721</v>
+        <v>-0.4427799659945466</v>
       </c>
       <c r="D164">
-        <v>1.021170703569123</v>
+        <v>-0.2881467530815252</v>
+      </c>
+      <c r="E164">
+        <v>33</v>
       </c>
       <c r="F164">
         <v>2</v>
@@ -3185,16 +3665,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-1.690210178175996</v>
+        <v>-1.382342202066061</v>
       </c>
       <c r="C165">
-        <v>-1.029294798585381</v>
+        <v>0.4050235006334606</v>
       </c>
       <c r="D165">
-        <v>1.006124038164673</v>
+        <v>-0.8712538626651158</v>
+      </c>
+      <c r="E165">
+        <v>33</v>
       </c>
       <c r="F165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3202,16 +3685,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-1.807323208764949</v>
+        <v>-1.389971990972185</v>
       </c>
       <c r="C166">
-        <v>-1.418598444832066</v>
+        <v>0.750113438203645</v>
       </c>
       <c r="D166">
-        <v>0.9082567443021682</v>
+        <v>-0.7309168627820899</v>
+      </c>
+      <c r="E166">
+        <v>33</v>
       </c>
       <c r="F166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3219,16 +3705,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-1.714228297244929</v>
+        <v>-1.600849070891318</v>
       </c>
       <c r="C167">
-        <v>-0.7160106647934588</v>
+        <v>-0.05171589150603439</v>
       </c>
       <c r="D167">
-        <v>0.9333216767494963</v>
+        <v>-0.4376836536544062</v>
+      </c>
+      <c r="E167">
+        <v>33</v>
       </c>
       <c r="F167">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3236,16 +3725,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.9699606917646266</v>
+        <v>-0.6862046805692004</v>
       </c>
       <c r="C168">
-        <v>-0.680388373947686</v>
+        <v>0.7578796669230186</v>
       </c>
       <c r="D168">
-        <v>-0.08897859298374988</v>
+        <v>-2.275650901426571</v>
+      </c>
+      <c r="E168">
+        <v>33</v>
       </c>
       <c r="F168">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3253,13 +3745,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-1.432615407628667</v>
+        <v>-1.360880819428315</v>
       </c>
       <c r="C169">
-        <v>-1.050261961906056</v>
+        <v>-0.5098110080429088</v>
       </c>
       <c r="D169">
-        <v>1.274347395108419</v>
+        <v>0.2878628446726148</v>
+      </c>
+      <c r="E169">
+        <v>33</v>
       </c>
       <c r="F169">
         <v>2</v>
@@ -3270,16 +3765,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-1.801446653802085</v>
+        <v>-1.472829581709844</v>
       </c>
       <c r="C170">
-        <v>-1.000636238255984</v>
+        <v>0.6685605810505075</v>
       </c>
       <c r="D170">
-        <v>1.129540705956679</v>
+        <v>-0.6796202845935126</v>
+      </c>
+      <c r="E170">
+        <v>33</v>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3287,16 +3785,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-0.4405246943528311</v>
+        <v>-0.4132877800661641</v>
       </c>
       <c r="C171">
-        <v>-1.875238593512743</v>
+        <v>-0.9488816128308342</v>
       </c>
       <c r="D171">
-        <v>1.32784427031103</v>
+        <v>-1.395511673375715</v>
+      </c>
+      <c r="E171">
+        <v>33</v>
       </c>
       <c r="F171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3304,13 +3805,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-1.64881546645801</v>
+        <v>-1.529952980429459</v>
       </c>
       <c r="C172">
-        <v>-0.9757857736578726</v>
+        <v>-0.2656351846856483</v>
       </c>
       <c r="D172">
-        <v>1.494625010288318</v>
+        <v>0.3021579321265815</v>
+      </c>
+      <c r="E172">
+        <v>33</v>
       </c>
       <c r="F172">
         <v>2</v>
@@ -3321,16 +3825,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-1.825530030621295</v>
+        <v>-1.445072000809812</v>
       </c>
       <c r="C173">
-        <v>-1.578643025791972</v>
+        <v>0.6731525059584402</v>
       </c>
       <c r="D173">
-        <v>1.036208446823757</v>
+        <v>-1.384909687999817</v>
+      </c>
+      <c r="E173">
+        <v>33</v>
       </c>
       <c r="F173">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3338,13 +3845,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-1.434910285630321</v>
+        <v>-1.343315422930694</v>
       </c>
       <c r="C174">
-        <v>-0.9147589097955234</v>
+        <v>-0.4056494478417354</v>
       </c>
       <c r="D174">
-        <v>0.9316786716080724</v>
+        <v>-0.2551650077432209</v>
+      </c>
+      <c r="E174">
+        <v>33</v>
       </c>
       <c r="F174">
         <v>2</v>
@@ -3355,16 +3865,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-1.702425047634832</v>
+        <v>-1.522112985575206</v>
       </c>
       <c r="C175">
-        <v>-0.8084764666268467</v>
+        <v>0.1609974928577234</v>
       </c>
       <c r="D175">
-        <v>0.8835919001824687</v>
+        <v>0.01230785457733541</v>
+      </c>
+      <c r="E175">
+        <v>33</v>
       </c>
       <c r="F175">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3372,16 +3885,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-12.53941559991197</v>
+        <v>-15.74240413382378</v>
       </c>
       <c r="C176">
-        <v>-15.62809344234081</v>
+        <v>-5.220764743069729</v>
       </c>
       <c r="D176">
-        <v>11.98309803259574</v>
+        <v>-23.49285565331719</v>
+      </c>
+      <c r="E176">
+        <v>33</v>
       </c>
       <c r="F176">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3389,16 +3905,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.9136962274894023</v>
+        <v>-0.5606434882170178</v>
       </c>
       <c r="C177">
-        <v>-1.280855747080047</v>
+        <v>0.2090442028770052</v>
       </c>
       <c r="D177">
-        <v>0.03939446168780891</v>
+        <v>-2.234028759611491</v>
+      </c>
+      <c r="E177">
+        <v>33</v>
       </c>
       <c r="F177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3406,16 +3925,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-1.491632108952344</v>
+        <v>-1.273702215508736</v>
       </c>
       <c r="C178">
-        <v>-0.8620599993276238</v>
+        <v>0.27764304552144</v>
       </c>
       <c r="D178">
-        <v>0.8303283099916218</v>
+        <v>-0.8326401774085279</v>
+      </c>
+      <c r="E178">
+        <v>33</v>
       </c>
       <c r="F178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3423,16 +3945,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-1.609164094095121</v>
+        <v>-1.39073721743161</v>
       </c>
       <c r="C179">
-        <v>-0.9600253796831887</v>
+        <v>0.14481560411665</v>
       </c>
       <c r="D179">
-        <v>0.9956650858656577</v>
+        <v>-0.4245803783478963</v>
+      </c>
+      <c r="E179">
+        <v>33</v>
       </c>
       <c r="F179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3440,16 +3965,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-0.650197423730452</v>
+        <v>-0.4402634249114703</v>
       </c>
       <c r="C180">
-        <v>-1.871124614811362</v>
+        <v>-0.6577673446917609</v>
       </c>
       <c r="D180">
-        <v>1.227224663162974</v>
+        <v>-0.8556604151530218</v>
+      </c>
+      <c r="E180">
+        <v>33</v>
       </c>
       <c r="F180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3457,16 +3985,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-1.344836351943954</v>
+        <v>-1.201886045858112</v>
       </c>
       <c r="C181">
-        <v>-0.8398133277372257</v>
+        <v>0.03246735825465108</v>
       </c>
       <c r="D181">
-        <v>0.6426019062735445</v>
+        <v>-0.9082623148348841</v>
+      </c>
+      <c r="E181">
+        <v>33</v>
       </c>
       <c r="F181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3474,13 +4005,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-1.846334747533519</v>
+        <v>-1.700691979914966</v>
       </c>
       <c r="C182">
-        <v>-0.6611935023862099</v>
+        <v>2.42089329979267e-05</v>
       </c>
       <c r="D182">
-        <v>1.213595365425344</v>
+        <v>0.4864814916565866</v>
+      </c>
+      <c r="E182">
+        <v>33</v>
       </c>
       <c r="F182">
         <v>2</v>
@@ -3491,16 +4025,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-1.637664232885846</v>
+        <v>-1.49574245504935</v>
       </c>
       <c r="C183">
-        <v>-0.4370104417067692</v>
+        <v>0.1921060494775174</v>
       </c>
       <c r="D183">
-        <v>0.7670497488659438</v>
+        <v>-0.2937688612061637</v>
+      </c>
+      <c r="E183">
+        <v>33</v>
       </c>
       <c r="F183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3508,13 +4045,16 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>5.183375713960397</v>
+        <v>17.45106472791753</v>
       </c>
       <c r="C184">
-        <v>-7.250843964172269</v>
+        <v>-2.011191259724249</v>
       </c>
       <c r="D184">
-        <v>-7.736585922449527</v>
+        <v>-31.86146285248805</v>
+      </c>
+      <c r="E184">
+        <v>34</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -3525,16 +4065,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.2249472662711729</v>
+        <v>1.756832913667311</v>
       </c>
       <c r="C185">
-        <v>-2.135476144842858</v>
+        <v>2.025290386938533</v>
       </c>
       <c r="D185">
-        <v>-1.86269515092285</v>
+        <v>-7.11365149367561</v>
+      </c>
+      <c r="E185">
+        <v>34</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -3542,16 +4085,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0.330582674149738</v>
+        <v>0.459957828328216</v>
       </c>
       <c r="C186">
-        <v>-0.9315555649555964</v>
+        <v>0.5197225306559941</v>
       </c>
       <c r="D186">
-        <v>-1.272226591563901</v>
+        <v>-2.761839581951357</v>
+      </c>
+      <c r="E186">
+        <v>34</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -3559,13 +4105,16 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0.4259720787734695</v>
+        <v>0.5134334883838219</v>
       </c>
       <c r="C187">
-        <v>-0.9348869148169443</v>
+        <v>0.2662372520904109</v>
       </c>
       <c r="D187">
-        <v>-0.6496493733431087</v>
+        <v>-2.731578352704234</v>
+      </c>
+      <c r="E187">
+        <v>34</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -3576,13 +4125,16 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.1689082127940611</v>
+        <v>2.351314528769689</v>
       </c>
       <c r="C188">
-        <v>0.007231791139217347</v>
+        <v>2.458238061518628</v>
       </c>
       <c r="D188">
-        <v>-1.612712430434113</v>
+        <v>-6.015882098322565</v>
+      </c>
+      <c r="E188">
+        <v>34</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -3593,13 +4145,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.8513880071539872</v>
+        <v>-0.6351625603844415</v>
       </c>
       <c r="C189">
-        <v>-0.3542720773230054</v>
+        <v>-0.09228377001148502</v>
       </c>
       <c r="D189">
-        <v>-0.4822063712523378</v>
+        <v>-1.124211405291732</v>
+      </c>
+      <c r="E189">
+        <v>34</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -3610,13 +4165,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.01290550974434335</v>
+        <v>2.129031375005567</v>
       </c>
       <c r="C190">
-        <v>-0.6656425931938451</v>
+        <v>1.481359012550458</v>
       </c>
       <c r="D190">
-        <v>-1.440767604220566</v>
+        <v>-5.713116832126679</v>
+      </c>
+      <c r="E190">
+        <v>34</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -3627,13 +4185,16 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.5182975370897842</v>
+        <v>-0.1638474430212966</v>
       </c>
       <c r="C191">
-        <v>-0.7735034263219261</v>
+        <v>-0.2112792722258491</v>
       </c>
       <c r="D191">
-        <v>-0.7451842143835016</v>
+        <v>-1.635917040297727</v>
+      </c>
+      <c r="E191">
+        <v>34</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -3644,16 +4205,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-1.222898148041161</v>
+        <v>-1.00127026159203</v>
       </c>
       <c r="C192">
-        <v>-0.5556127571600263</v>
+        <v>-0.2385703012209409</v>
       </c>
       <c r="D192">
-        <v>0.1133168279589255</v>
+        <v>-0.5123483318481823</v>
+      </c>
+      <c r="E192">
+        <v>34</v>
       </c>
       <c r="F192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -3661,16 +4225,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-1.149066935570801</v>
+        <v>-0.9654293671925089</v>
       </c>
       <c r="C193">
-        <v>-0.610702902623279</v>
+        <v>-0.2923009102053264</v>
       </c>
       <c r="D193">
-        <v>-0.4735385800903281</v>
+        <v>-1.153184011123459</v>
+      </c>
+      <c r="E193">
+        <v>34</v>
       </c>
       <c r="F193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -3678,13 +4245,16 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.2566644984826845</v>
+        <v>0.08332090203303433</v>
       </c>
       <c r="C194">
-        <v>-0.09784695707648361</v>
+        <v>0.4631575524859501</v>
       </c>
       <c r="D194">
-        <v>-2.381079787567183</v>
+        <v>-3.222421437099199</v>
+      </c>
+      <c r="E194">
+        <v>34</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -3695,13 +4265,16 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.2655897008519981</v>
+        <v>1.962098008975398</v>
       </c>
       <c r="C195">
-        <v>-0.4121502127074441</v>
+        <v>1.651493104969805</v>
       </c>
       <c r="D195">
-        <v>-0.8900868098026279</v>
+        <v>-4.635474270011972</v>
+      </c>
+      <c r="E195">
+        <v>34</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -3712,16 +4285,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0.3758645387458677</v>
+        <v>0.552537448744804</v>
       </c>
       <c r="C196">
-        <v>-0.7192636733422959</v>
+        <v>0.8344542600929781</v>
       </c>
       <c r="D196">
-        <v>-1.114455574017553</v>
+        <v>-3.004297569676047</v>
+      </c>
+      <c r="E196">
+        <v>34</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -3729,16 +4305,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.05367924886871278</v>
+        <v>2.602183621661083</v>
       </c>
       <c r="C197">
-        <v>-0.9553287123371463</v>
+        <v>3.345536138050624</v>
       </c>
       <c r="D197">
-        <v>-2.861305637707438</v>
+        <v>-8.069289933581958</v>
+      </c>
+      <c r="E197">
+        <v>34</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -3746,13 +4325,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.4643771373534442</v>
+        <v>0.02426389950706209</v>
       </c>
       <c r="C198">
-        <v>-0.3253516508504353</v>
+        <v>0.2944655178936757</v>
       </c>
       <c r="D198">
-        <v>-0.7502201747069263</v>
+        <v>-1.708245401321529</v>
+      </c>
+      <c r="E198">
+        <v>34</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -3763,16 +4345,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>-0.9517500223031806</v>
+        <v>1.822450449613434</v>
       </c>
       <c r="C199">
-        <v>-2.223227550343972</v>
+        <v>4.325009549244488</v>
       </c>
       <c r="D199">
-        <v>-2.418318538733885</v>
+        <v>-6.073708311999208</v>
+      </c>
+      <c r="E199">
+        <v>34</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -3780,13 +4365,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.01255562286894518</v>
+        <v>1.965788766875835</v>
       </c>
       <c r="C200">
-        <v>-0.3561170392908459</v>
+        <v>1.436540650701747</v>
       </c>
       <c r="D200">
-        <v>-1.32814509371286</v>
+        <v>-5.030126424278012</v>
+      </c>
+      <c r="E200">
+        <v>34</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -3797,13 +4385,16 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-0.2023238323646985</v>
+        <v>1.256258542168799</v>
       </c>
       <c r="C201">
-        <v>-0.5663108009107565</v>
+        <v>1.214296727586579</v>
       </c>
       <c r="D201">
-        <v>-1.143831192661352</v>
+        <v>-3.762837591356465</v>
+      </c>
+      <c r="E201">
+        <v>34</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -3814,13 +4405,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>-0.5802010670398325</v>
+        <v>-0.09243670864822806</v>
       </c>
       <c r="C202">
-        <v>-0.3354680506769345</v>
+        <v>0.2876740219318601</v>
       </c>
       <c r="D202">
-        <v>-1.070447487072363</v>
+        <v>-2.020765698044947</v>
+      </c>
+      <c r="E202">
+        <v>34</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -3831,13 +4425,16 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.5858024449262358</v>
+        <v>2.642612824697774</v>
       </c>
       <c r="C203">
-        <v>-0.5638049113325746</v>
+        <v>1.20585503106175</v>
       </c>
       <c r="D203">
-        <v>-1.83852854836046</v>
+        <v>-6.405991611713392</v>
+      </c>
+      <c r="E203">
+        <v>34</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -3848,13 +4445,16 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>-1.110690055648959</v>
+        <v>-0.55149774340517</v>
       </c>
       <c r="C204">
-        <v>0.08407456982797523</v>
+        <v>0.7880374990431329</v>
       </c>
       <c r="D204">
-        <v>-0.589849967188054</v>
+        <v>-1.817437689880038</v>
+      </c>
+      <c r="E204">
+        <v>34</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -3865,16 +4465,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.7458533791180345</v>
+        <v>-0.1232204642080621</v>
       </c>
       <c r="C205">
-        <v>-0.7877292472194009</v>
+        <v>0.03380172551071514</v>
       </c>
       <c r="D205">
-        <v>-0.0315722687195239</v>
+        <v>-1.343826852941262</v>
+      </c>
+      <c r="E205">
+        <v>34</v>
       </c>
       <c r="F205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -3882,13 +4485,16 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-1.359958773775917</v>
+        <v>-0.4302605176747556</v>
       </c>
       <c r="C206">
-        <v>0.04246732872425329</v>
+        <v>1.007884259613181</v>
       </c>
       <c r="D206">
-        <v>-0.08464830434324122</v>
+        <v>-1.75882383596069</v>
+      </c>
+      <c r="E206">
+        <v>34</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -3899,13 +4505,16 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>-0.3985280795975517</v>
+        <v>1.380683622222454</v>
       </c>
       <c r="C207">
-        <v>0.2174141570759778</v>
+        <v>1.879582637323193</v>
       </c>
       <c r="D207">
-        <v>-1.541143986886038</v>
+        <v>-4.827265617814101</v>
+      </c>
+      <c r="E207">
+        <v>34</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -3916,13 +4525,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.023916343483257</v>
+        <v>2.307121295584432</v>
       </c>
       <c r="C208">
-        <v>-0.3593046394747669</v>
+        <v>1.905926379816363</v>
       </c>
       <c r="D208">
-        <v>-1.532929121809402</v>
+        <v>-5.549075631794032</v>
+      </c>
+      <c r="E208">
+        <v>34</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -3933,13 +4545,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.5067050808173145</v>
+        <v>-0.331000716844345</v>
       </c>
       <c r="C209">
-        <v>-0.5325204427460778</v>
+        <v>-0.3677737157388768</v>
       </c>
       <c r="D209">
-        <v>-0.9477707730837336</v>
+        <v>-1.548266463931171</v>
+      </c>
+      <c r="E209">
+        <v>34</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -3950,13 +4565,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-0.4232222373450092</v>
+        <v>-0.05568240682611614</v>
       </c>
       <c r="C210">
-        <v>-0.2888604671000627</v>
+        <v>0.09339996956419094</v>
       </c>
       <c r="D210">
-        <v>-0.9537227939515903</v>
+        <v>-1.824829108180813</v>
+      </c>
+      <c r="E210">
+        <v>34</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -3967,16 +4585,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-0.5350205908002786</v>
+        <v>0.2547279720122555</v>
       </c>
       <c r="C211">
-        <v>-1.090145160895335</v>
+        <v>0.7423221377826796</v>
       </c>
       <c r="D211">
-        <v>-1.167049764388904</v>
+        <v>-2.67371890098108</v>
+      </c>
+      <c r="E211">
+        <v>34</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -3984,13 +4605,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.6163389029866179</v>
+        <v>-0.06437825524340446</v>
       </c>
       <c r="C212">
-        <v>-0.539758384254357</v>
+        <v>0.3883531100528301</v>
       </c>
       <c r="D212">
-        <v>-1.005148539666535</v>
+        <v>-2.565287703045122</v>
+      </c>
+      <c r="E212">
+        <v>34</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -4001,13 +4625,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.5566505304506861</v>
+        <v>0.5852093470452204</v>
       </c>
       <c r="C213">
-        <v>0.2982430277961963</v>
+        <v>1.208470192538819</v>
       </c>
       <c r="D213">
-        <v>-1.597830297786967</v>
+        <v>-3.575992379872399</v>
+      </c>
+      <c r="E213">
+        <v>34</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -4018,13 +4645,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>-1.01403238134814</v>
+        <v>0.3072509709932809</v>
       </c>
       <c r="C214">
-        <v>-0.2115772222302491</v>
+        <v>1.322297496655361</v>
       </c>
       <c r="D214">
-        <v>-0.226439962395701</v>
+        <v>-2.287270058635226</v>
+      </c>
+      <c r="E214">
+        <v>35</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -4035,16 +4665,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-1.21949919932799</v>
+        <v>-0.2438303912139985</v>
       </c>
       <c r="C215">
-        <v>-0.1516220565557532</v>
+        <v>0.7552115836327069</v>
       </c>
       <c r="D215">
-        <v>0.03093152088184448</v>
+        <v>-1.690865747638517</v>
+      </c>
+      <c r="E215">
+        <v>35</v>
       </c>
       <c r="F215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4052,13 +4685,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-0.5503897244523351</v>
+        <v>0.8362536443772064</v>
       </c>
       <c r="C216">
-        <v>0.2010911993273716</v>
+        <v>1.685734415394893</v>
       </c>
       <c r="D216">
-        <v>-1.293456039072688</v>
+        <v>-3.455327640630959</v>
+      </c>
+      <c r="E216">
+        <v>35</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -4069,13 +4705,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.7723490193467559</v>
+        <v>1.18892726642268</v>
       </c>
       <c r="C217">
-        <v>-0.1111390772358922</v>
+        <v>1.97977489323534</v>
       </c>
       <c r="D217">
-        <v>-0.7268193737062366</v>
+        <v>-3.848603048714568</v>
+      </c>
+      <c r="E217">
+        <v>35</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -4086,13 +4725,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-1.035271424368097</v>
+        <v>0.4414683658929046</v>
       </c>
       <c r="C218">
-        <v>0.4403394567505405</v>
+        <v>1.871095528645055</v>
       </c>
       <c r="D218">
-        <v>-0.9181833984212066</v>
+        <v>-3.275138757352501</v>
+      </c>
+      <c r="E218">
+        <v>35</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -4103,13 +4745,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>-0.6805354214805425</v>
+        <v>0.778341233815858</v>
       </c>
       <c r="C219">
-        <v>0.4500482883434382</v>
+        <v>1.6903657348358</v>
       </c>
       <c r="D219">
-        <v>-1.414467164038692</v>
+        <v>-3.749122702856371</v>
+      </c>
+      <c r="E219">
+        <v>35</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -4120,16 +4765,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>-0.4051158425451833</v>
+        <v>-0.08418238938205613</v>
       </c>
       <c r="C220">
-        <v>-0.5066289587648845</v>
+        <v>0.01056044850075122</v>
       </c>
       <c r="D220">
-        <v>-1.165753827199251</v>
+        <v>-1.906086328448161</v>
+      </c>
+      <c r="E220">
+        <v>35</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4137,13 +4785,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-0.5487300375359043</v>
+        <v>1.511746104501197</v>
       </c>
       <c r="C221">
-        <v>-0.1249644386026009</v>
+        <v>1.969600275329608</v>
       </c>
       <c r="D221">
-        <v>-0.6716221725131745</v>
+        <v>-4.237003664689947</v>
+      </c>
+      <c r="E221">
+        <v>35</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -4154,13 +4805,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.8438307072475836</v>
+        <v>0.4992957173479495</v>
       </c>
       <c r="C222">
-        <v>-0.121958819641615</v>
+        <v>1.269996570192335</v>
       </c>
       <c r="D222">
-        <v>-0.3424509548750331</v>
+        <v>-2.459831944695953</v>
+      </c>
+      <c r="E222">
+        <v>35</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -4171,13 +4825,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>-0.4755691408897067</v>
+        <v>0.2213981953328397</v>
       </c>
       <c r="C223">
-        <v>-0.4200916174830506</v>
+        <v>0.3281403987118205</v>
       </c>
       <c r="D223">
-        <v>-0.5689235567188323</v>
+        <v>-1.674609712335457</v>
+      </c>
+      <c r="E223">
+        <v>35</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -4188,16 +4845,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-0.3722596719019771</v>
+        <v>2.27653033693522</v>
       </c>
       <c r="C224">
-        <v>-0.5052494410040125</v>
+        <v>2.672982233683596</v>
       </c>
       <c r="D224">
-        <v>-1.237672152167594</v>
+        <v>-5.256037426336047</v>
+      </c>
+      <c r="E224">
+        <v>35</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4205,16 +4865,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>-0.4243196477052531</v>
+        <v>0.4547440271233132</v>
       </c>
       <c r="C225">
-        <v>-0.4850989677450477</v>
+        <v>1.008144517370569</v>
       </c>
       <c r="D225">
-        <v>-1.180999605054508</v>
+        <v>-2.465615956452395</v>
+      </c>
+      <c r="E225">
+        <v>35</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4222,16 +4885,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.3645352319455442</v>
+        <v>2.309756676950075</v>
       </c>
       <c r="C226">
-        <v>-1.072758667082234</v>
+        <v>3.117135572596869</v>
       </c>
       <c r="D226">
-        <v>-1.60362836825355</v>
+        <v>-5.516232103665514</v>
+      </c>
+      <c r="E226">
+        <v>35</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4239,16 +4905,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.1311925908681337</v>
+        <v>2.653663544546156</v>
       </c>
       <c r="C227">
-        <v>-0.8516775006810249</v>
+        <v>2.731203721395548</v>
       </c>
       <c r="D227">
-        <v>-1.184078849554321</v>
+        <v>-5.46751323573555</v>
+      </c>
+      <c r="E227">
+        <v>35</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4256,13 +4925,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-0.3694842946770611</v>
+        <v>-0.05390147821320745</v>
       </c>
       <c r="C228">
-        <v>0.3875013055052563</v>
+        <v>1.047617657709677</v>
       </c>
       <c r="D228">
-        <v>-1.943777295150888</v>
+        <v>-2.503809951068154</v>
+      </c>
+      <c r="E228">
+        <v>35</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -4273,16 +4945,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.09605765674833022</v>
+        <v>1.846141999744008</v>
       </c>
       <c r="C229">
-        <v>-0.8839482725355535</v>
+        <v>2.208324806260108</v>
       </c>
       <c r="D229">
-        <v>-2.295932651321079</v>
+        <v>-4.89390983385394</v>
+      </c>
+      <c r="E229">
+        <v>35</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4290,13 +4965,16 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.3946064090344839</v>
+        <v>1.293536194813578</v>
       </c>
       <c r="C230">
-        <v>-0.4241067735802296</v>
+        <v>1.187813974766182</v>
       </c>
       <c r="D230">
-        <v>-0.4882546232023531</v>
+        <v>-3.076030629264658</v>
+      </c>
+      <c r="E230">
+        <v>35</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -4307,13 +4985,16 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.1112599644266108</v>
+        <v>0.946623344086448</v>
       </c>
       <c r="C231">
-        <v>-0.2790612231463942</v>
+        <v>0.575878330314497</v>
       </c>
       <c r="D231">
-        <v>-0.7597878416727456</v>
+        <v>-2.613795401293109</v>
+      </c>
+      <c r="E231">
+        <v>35</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -4324,13 +5005,16 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.4021225213242858</v>
+        <v>1.051424761186409</v>
       </c>
       <c r="C232">
-        <v>-0.1565146359369706</v>
+        <v>1.115688472600175</v>
       </c>
       <c r="D232">
-        <v>-0.2913736283064897</v>
+        <v>-2.667447049509398</v>
+      </c>
+      <c r="E232">
+        <v>35</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -4341,13 +5025,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-0.9149254964061447</v>
+        <v>0.7239488736889808</v>
       </c>
       <c r="C233">
-        <v>-0.5887279616060075</v>
+        <v>1.94740264947192</v>
       </c>
       <c r="D233">
-        <v>-0.7821288780249732</v>
+        <v>-3.212167342241246</v>
+      </c>
+      <c r="E233">
+        <v>35</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -4358,13 +5045,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.2206198004127922</v>
+        <v>0.7711044600800498</v>
       </c>
       <c r="C234">
-        <v>-0.7080096490571952</v>
+        <v>0.423088087932354</v>
       </c>
       <c r="D234">
-        <v>-1.507251494960892</v>
+        <v>-2.217882148237138</v>
+      </c>
+      <c r="E234">
+        <v>35</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -4375,13 +5065,16 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.1297983998368306</v>
+        <v>1.391822570163884</v>
       </c>
       <c r="C235">
-        <v>-0.8735642177549063</v>
+        <v>0.9087595643455118</v>
       </c>
       <c r="D235">
-        <v>-1.635858771853284</v>
+        <v>-4.030784496184303</v>
+      </c>
+      <c r="E235">
+        <v>35</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -4392,13 +5085,16 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.4263975398914335</v>
+        <v>2.105970573539325</v>
       </c>
       <c r="C236">
-        <v>-0.3352525834373568</v>
+        <v>2.235888744806477</v>
       </c>
       <c r="D236">
-        <v>-0.3821058472078053</v>
+        <v>-3.956929614058548</v>
+      </c>
+      <c r="E236">
+        <v>35</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -4409,13 +5105,16 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>-0.07215769298733421</v>
+        <v>2.485275367133262</v>
       </c>
       <c r="C237">
-        <v>-0.5733751718085354</v>
+        <v>2.281287664745494</v>
       </c>
       <c r="D237">
-        <v>-1.495326199528426</v>
+        <v>-5.573678462343841</v>
+      </c>
+      <c r="E237">
+        <v>35</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -4426,16 +5125,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.4374667336820104</v>
+        <v>0.9019669805294304</v>
       </c>
       <c r="C238">
-        <v>-0.6157924641281098</v>
+        <v>0.9390863984260134</v>
       </c>
       <c r="D238">
-        <v>-0.638041011873519</v>
+        <v>-2.826359254412717</v>
+      </c>
+      <c r="E238">
+        <v>35</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -4443,13 +5145,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>-0.5584063982130046</v>
+        <v>1.152504452261251</v>
       </c>
       <c r="C239">
-        <v>-0.2996289942515715</v>
+        <v>1.916896631718884</v>
       </c>
       <c r="D239">
-        <v>-1.162570561110098</v>
+        <v>-3.83078571038643</v>
+      </c>
+      <c r="E239">
+        <v>35</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -4460,13 +5165,16 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.1720844058970183</v>
+        <v>0.9202478914400549</v>
       </c>
       <c r="C240">
-        <v>-0.8145320660252815</v>
+        <v>0.1872647268565711</v>
       </c>
       <c r="D240">
-        <v>-1.266726639168418</v>
+        <v>-2.429894772631993</v>
+      </c>
+      <c r="E240">
+        <v>35</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -4477,13 +5185,16 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.5216777940280298</v>
+        <v>1.320827271522672</v>
       </c>
       <c r="C241">
-        <v>-0.4376333335262929</v>
+        <v>1.91808193312101</v>
       </c>
       <c r="D241">
-        <v>-1.110824523806989</v>
+        <v>-3.895076432008707</v>
+      </c>
+      <c r="E241">
+        <v>35</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -4494,16 +5205,19 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.3552621204447071</v>
+        <v>1.31541204326881</v>
       </c>
       <c r="C242">
-        <v>-2.344044627105031</v>
+        <v>1.707891446355354</v>
       </c>
       <c r="D242">
-        <v>-1.361227870143236</v>
+        <v>-3.773073440207724</v>
+      </c>
+      <c r="E242">
+        <v>35</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -4511,16 +5225,19 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>-0.08480499439728439</v>
+        <v>1.652291135276684</v>
       </c>
       <c r="C243">
-        <v>-0.4911976430111255</v>
+        <v>2.071886669159184</v>
       </c>
       <c r="D243">
-        <v>-1.989888762070132</v>
+        <v>-4.66003757549177</v>
+      </c>
+      <c r="E243">
+        <v>35</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -4528,13 +5245,16 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.2001751669197693</v>
+        <v>0.4165013940649198</v>
       </c>
       <c r="C244">
-        <v>-0.1460287936864555</v>
+        <v>0.634872749521133</v>
       </c>
       <c r="D244">
-        <v>-1.623156989334759</v>
+        <v>-2.743500698699396</v>
+      </c>
+      <c r="E244">
+        <v>35</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -4545,16 +5265,19 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.08138808459098268</v>
+        <v>1.142885768764439</v>
       </c>
       <c r="C245">
-        <v>-1.210754734432081</v>
+        <v>1.20700033189822</v>
       </c>
       <c r="D245">
-        <v>-1.549577172751403</v>
+        <v>-3.875234833009925</v>
+      </c>
+      <c r="E245">
+        <v>35</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -4562,16 +5285,19 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>-0.1215537197543906</v>
+        <v>0.86206681597811</v>
       </c>
       <c r="C246">
-        <v>-1.094333152113665</v>
+        <v>0.8952026022056803</v>
       </c>
       <c r="D246">
-        <v>-1.281011170564805</v>
+        <v>-2.644938308865009</v>
+      </c>
+      <c r="E246">
+        <v>35</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -4579,13 +5305,16 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.7546996757481355</v>
+        <v>2.261626052062969</v>
       </c>
       <c r="C247">
-        <v>-1.467590640598211</v>
+        <v>0.9896514051487504</v>
       </c>
       <c r="D247">
-        <v>-1.836296658943482</v>
+        <v>-4.041256853274216</v>
+      </c>
+      <c r="E247">
+        <v>35</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -4596,13 +5325,16 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.07240072913275508</v>
+        <v>0.8367491110697629</v>
       </c>
       <c r="C248">
-        <v>-1.794097788213272</v>
+        <v>0.02046994179955475</v>
       </c>
       <c r="D248">
-        <v>-1.286789375707491</v>
+        <v>-2.807587303128806</v>
+      </c>
+      <c r="E248">
+        <v>35</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -4613,16 +5345,19 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.469412408755728</v>
+        <v>0.9751366764076015</v>
       </c>
       <c r="C249">
-        <v>-1.018390496723919</v>
+        <v>1.3198926240029</v>
       </c>
       <c r="D249">
-        <v>-0.29436391101235</v>
+        <v>-2.781687611414567</v>
+      </c>
+      <c r="E249">
+        <v>36</v>
       </c>
       <c r="F249">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -4630,13 +5365,16 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>-0.3167314628994435</v>
+        <v>1.432059232499996</v>
       </c>
       <c r="C250">
-        <v>-1.272302199028386</v>
+        <v>1.412997780977306</v>
       </c>
       <c r="D250">
-        <v>-0.3946860878330211</v>
+        <v>-3.409755969869562</v>
+      </c>
+      <c r="E250">
+        <v>36</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -4647,16 +5385,19 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-0.6105488244878297</v>
+        <v>1.620268030917586</v>
       </c>
       <c r="C251">
-        <v>-0.4461426666220604</v>
+        <v>1.975356497182066</v>
       </c>
       <c r="D251">
-        <v>-0.3867924867627442</v>
+        <v>-4.181810663325225</v>
+      </c>
+      <c r="E251">
+        <v>36</v>
       </c>
       <c r="F251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -4664,16 +5405,19 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.5472004908348321</v>
+        <v>-0.0746062337956781</v>
       </c>
       <c r="C252">
-        <v>-0.9544559658493996</v>
+        <v>-0.07088021451264914</v>
       </c>
       <c r="D252">
-        <v>0.07603691791262035</v>
+        <v>-0.9237046958937327</v>
+      </c>
+      <c r="E252">
+        <v>36</v>
       </c>
       <c r="F252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -4681,13 +5425,16 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.01475694149227591</v>
+        <v>1.258397892044306</v>
       </c>
       <c r="C253">
-        <v>-1.064612217321098</v>
+        <v>1.256035722799223</v>
       </c>
       <c r="D253">
-        <v>-0.9389243807869222</v>
+        <v>-3.015130597482334</v>
+      </c>
+      <c r="E253">
+        <v>36</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -4698,16 +5445,19 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-0.3226119770751581</v>
+        <v>1.45622027429448</v>
       </c>
       <c r="C254">
-        <v>-0.6656729332471056</v>
+        <v>2.276672343977395</v>
       </c>
       <c r="D254">
-        <v>-1.10073762566203</v>
+        <v>-3.939721766624333</v>
+      </c>
+      <c r="E254">
+        <v>36</v>
       </c>
       <c r="F254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -4715,16 +5465,19 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>-0.5880109394363361</v>
+        <v>1.373442553460991</v>
       </c>
       <c r="C255">
-        <v>-1.146754232302616</v>
+        <v>2.343274027498415</v>
       </c>
       <c r="D255">
-        <v>-1.008302275092205</v>
+        <v>-4.348012699677106</v>
+      </c>
+      <c r="E255">
+        <v>36</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -4732,16 +5485,19 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.4471625187725787</v>
+        <v>1.250157298017549</v>
       </c>
       <c r="C256">
-        <v>-1.020529576220454</v>
+        <v>1.808550838662371</v>
       </c>
       <c r="D256">
-        <v>-0.7741898668717492</v>
+        <v>-3.456143433790595</v>
+      </c>
+      <c r="E256">
+        <v>36</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -4749,13 +5505,16 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.08572341587099364</v>
+        <v>1.336171207345545</v>
       </c>
       <c r="C257">
-        <v>-1.92501707479796</v>
+        <v>1.060657488950841</v>
       </c>
       <c r="D257">
-        <v>-0.571160740323066</v>
+        <v>-2.877648098837053</v>
+      </c>
+      <c r="E257">
+        <v>36</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -4766,16 +5525,19 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.69102109139799</v>
+        <v>1.611261276725106</v>
       </c>
       <c r="C258">
-        <v>-0.5877093453011957</v>
+        <v>2.682235340740374</v>
       </c>
       <c r="D258">
-        <v>-0.4657459674011722</v>
+        <v>-4.285591204760221</v>
+      </c>
+      <c r="E258">
+        <v>36</v>
       </c>
       <c r="F258">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -4783,16 +5545,19 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.4522337853624498</v>
+        <v>0.3804214051308876</v>
       </c>
       <c r="C259">
-        <v>-0.9208701497553016</v>
+        <v>0.2623294795082843</v>
       </c>
       <c r="D259">
-        <v>0.1408085764988573</v>
+        <v>-1.558548597030027</v>
+      </c>
+      <c r="E259">
+        <v>36</v>
       </c>
       <c r="F259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -4800,16 +5565,19 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>-0.4361216557803582</v>
+        <v>1.089140279958379</v>
       </c>
       <c r="C260">
-        <v>-1.165389475246124</v>
+        <v>1.150723175548388</v>
       </c>
       <c r="D260">
-        <v>-0.1093698802656673</v>
+        <v>-2.81535587716175</v>
+      </c>
+      <c r="E260">
+        <v>36</v>
       </c>
       <c r="F260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -4817,13 +5585,16 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>4.414632583184053</v>
+        <v>16.40967515140161</v>
       </c>
       <c r="C261">
-        <v>-6.68118344373818</v>
+        <v>-2.037410281584227</v>
       </c>
       <c r="D261">
-        <v>-5.907816656802084</v>
+        <v>-28.28396461762846</v>
+      </c>
+      <c r="E261">
+        <v>36</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -4834,16 +5605,19 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>-0.6610536614000333</v>
+        <v>1.195564808421124</v>
       </c>
       <c r="C262">
-        <v>-1.662012395706949</v>
+        <v>2.287104553878659</v>
       </c>
       <c r="D262">
-        <v>-0.7347228784011913</v>
+        <v>-3.833487851286518</v>
+      </c>
+      <c r="E262">
+        <v>36</v>
       </c>
       <c r="F262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -4851,16 +5625,19 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-1.106461573244473</v>
+        <v>-0.175433124031944</v>
       </c>
       <c r="C263">
-        <v>-1.23226070792489</v>
+        <v>1.812274213019067</v>
       </c>
       <c r="D263">
-        <v>-0.8046415334483142</v>
+        <v>-2.669775833438501</v>
+      </c>
+      <c r="E263">
+        <v>36</v>
       </c>
       <c r="F263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -4868,16 +5645,19 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>-0.4136891582453828</v>
+        <v>0.4185690853762793</v>
       </c>
       <c r="C264">
-        <v>-1.162894893897629</v>
+        <v>0.3319098423211166</v>
       </c>
       <c r="D264">
-        <v>-0.2139306678213027</v>
+        <v>-1.924742389704336</v>
+      </c>
+      <c r="E264">
+        <v>36</v>
       </c>
       <c r="F264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -4885,16 +5665,19 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>-0.3280092963916921</v>
+        <v>1.462288587846186</v>
       </c>
       <c r="C265">
-        <v>-1.218217194593112</v>
+        <v>1.638414476814269</v>
       </c>
       <c r="D265">
-        <v>-0.3294727941273187</v>
+        <v>-3.330954560411972</v>
+      </c>
+      <c r="E265">
+        <v>36</v>
       </c>
       <c r="F265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -4902,16 +5685,19 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-1.099124312594137</v>
+        <v>-0.1651110904384137</v>
       </c>
       <c r="C266">
-        <v>-1.807414061351775</v>
+        <v>0.8410366377952889</v>
       </c>
       <c r="D266">
-        <v>0.1650586741482376</v>
+        <v>-1.607935363140385</v>
+      </c>
+      <c r="E266">
+        <v>36</v>
       </c>
       <c r="F266">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -4919,13 +5705,16 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.621250188719493</v>
+        <v>1.559136099061098</v>
       </c>
       <c r="C267">
-        <v>-1.082159880603586</v>
+        <v>0.1383061406892309</v>
       </c>
       <c r="D267">
-        <v>-0.317284613996741</v>
+        <v>-1.762929541678693</v>
+      </c>
+      <c r="E267">
+        <v>36</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -4936,16 +5725,19 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.3485730043828461</v>
+        <v>1.114481552628573</v>
       </c>
       <c r="C268">
-        <v>-0.8379566179474703</v>
+        <v>1.341705781488162</v>
       </c>
       <c r="D268">
-        <v>-0.3802426700825442</v>
+        <v>-2.849115752998543</v>
+      </c>
+      <c r="E268">
+        <v>36</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -4953,16 +5745,19 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-0.4485013272068452</v>
+        <v>1.87118291683404</v>
       </c>
       <c r="C269">
-        <v>-0.9484372738798197</v>
+        <v>2.934023055547955</v>
       </c>
       <c r="D269">
-        <v>-1.116850015329746</v>
+        <v>-4.763929230096852</v>
+      </c>
+      <c r="E269">
+        <v>36</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -4970,16 +5765,19 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>-0.3291609490843583</v>
+        <v>1.761773554810479</v>
       </c>
       <c r="C270">
-        <v>-1.032951500991048</v>
+        <v>2.462465009517547</v>
       </c>
       <c r="D270">
-        <v>-0.8274113632647452</v>
+        <v>-3.97076354058605</v>
+      </c>
+      <c r="E270">
+        <v>36</v>
       </c>
       <c r="F270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -4987,16 +5785,19 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.3862116620125571</v>
+        <v>0.4291072872391573</v>
       </c>
       <c r="C271">
-        <v>-1.094950729284289</v>
+        <v>0.907157095678133</v>
       </c>
       <c r="D271">
-        <v>-0.5188970431737007</v>
+        <v>-2.142336814061909</v>
+      </c>
+      <c r="E271">
+        <v>36</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5004,16 +5805,19 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.08259975374869444</v>
+        <v>0.872372152280259</v>
       </c>
       <c r="C272">
-        <v>-0.6121589569184334</v>
+        <v>1.137249619448742</v>
       </c>
       <c r="D272">
-        <v>-0.9311897990985673</v>
+        <v>-2.44751664551202</v>
+      </c>
+      <c r="E272">
+        <v>36</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5021,16 +5825,19 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>-0.461584362261604</v>
+        <v>1.357286652169014</v>
       </c>
       <c r="C273">
-        <v>-0.9257859414343028</v>
+        <v>1.798766457474865</v>
       </c>
       <c r="D273">
-        <v>-0.5495911472929783</v>
+        <v>-3.4392736030596</v>
+      </c>
+      <c r="E273">
+        <v>36</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
